--- a/SURVEY_DATA.xlsx
+++ b/SURVEY_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pawel Kulawiak\Dropbox\Epilepsie\Lehrkraefte\Epilepsie Daten Niedersachsen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4972A3-7D17-4A74-BACA-AFA98501EB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BF605C-139F-4B65-A5C3-87272D7BBAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-60" windowWidth="23256" windowHeight="12456" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2831" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>secret</t>
   </si>
 </sst>
 </file>
@@ -656,16 +659,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A320" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G350" sqref="G350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1024" width="11.453125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -925,10 +928,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>50</v>
       </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
       <c r="C2">
         <v>0</v>
       </c>
@@ -938,11 +944,20 @@
       <c r="E2">
         <v>276712978</v>
       </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="3" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>51</v>
       </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
       <c r="C3">
         <v>65</v>
       </c>
@@ -952,6 +967,12 @@
       <c r="E3">
         <v>1149948504</v>
       </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
       <c r="H3" t="s">
         <v>87</v>
       </c>
@@ -1136,10 +1157,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>52</v>
       </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
       <c r="C4">
         <v>65</v>
       </c>
@@ -1149,6 +1173,12 @@
       <c r="E4">
         <v>18531131</v>
       </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
       <c r="H4" t="s">
         <v>87</v>
       </c>
@@ -1333,10 +1363,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>53</v>
       </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
       <c r="C5">
         <v>65</v>
       </c>
@@ -1346,6 +1379,12 @@
       <c r="E5">
         <v>981196159</v>
       </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
       <c r="H5" t="s">
         <v>87</v>
       </c>
@@ -1521,10 +1560,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>54</v>
       </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
       <c r="C6">
         <v>65</v>
       </c>
@@ -1534,6 +1576,12 @@
       <c r="E6">
         <v>1905272987</v>
       </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
       <c r="H6" t="s">
         <v>87</v>
       </c>
@@ -1721,10 +1769,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>55</v>
       </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
       <c r="C7">
         <v>65</v>
       </c>
@@ -1734,6 +1785,12 @@
       <c r="E7">
         <v>1854401365</v>
       </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
       <c r="H7" t="s">
         <v>87</v>
       </c>
@@ -1921,21 +1978,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>56</v>
       </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
       <c r="D8" t="s">
         <v>86</v>
       </c>
       <c r="E8">
         <v>626847094</v>
       </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="9" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>57</v>
       </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
       <c r="C9">
         <v>-1</v>
       </c>
@@ -1945,11 +2014,20 @@
       <c r="E9">
         <v>1586121875</v>
       </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="10" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>58</v>
       </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
       <c r="C10">
         <v>65</v>
       </c>
@@ -1959,6 +2037,12 @@
       <c r="E10">
         <v>1901938621</v>
       </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
       <c r="H10" t="s">
         <v>87</v>
       </c>
@@ -2143,10 +2227,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>59</v>
       </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
       <c r="C11">
         <v>65</v>
       </c>
@@ -2156,6 +2243,12 @@
       <c r="E11">
         <v>750481840</v>
       </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
       <c r="H11" t="s">
         <v>87</v>
       </c>
@@ -2349,10 +2442,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>60</v>
       </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
       <c r="C12">
         <v>65</v>
       </c>
@@ -2362,6 +2458,12 @@
       <c r="E12">
         <v>636517006</v>
       </c>
+      <c r="F12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
       <c r="H12" t="s">
         <v>87</v>
       </c>
@@ -2558,10 +2660,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>61</v>
       </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
       <c r="C13">
         <v>65</v>
       </c>
@@ -2571,6 +2676,12 @@
       <c r="E13">
         <v>149488635</v>
       </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
       <c r="H13" t="s">
         <v>87</v>
       </c>
@@ -2755,10 +2866,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>62</v>
       </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
       <c r="C14">
         <v>65</v>
       </c>
@@ -2768,6 +2882,12 @@
       <c r="E14">
         <v>1345700934</v>
       </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
       <c r="H14" t="s">
         <v>87</v>
       </c>
@@ -2952,10 +3072,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>63</v>
       </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
       <c r="C15">
         <v>65</v>
       </c>
@@ -2965,6 +3088,12 @@
       <c r="E15">
         <v>901860502</v>
       </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
       <c r="H15" t="s">
         <v>87</v>
       </c>
@@ -3146,10 +3275,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>64</v>
       </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
       <c r="C16">
         <v>9</v>
       </c>
@@ -3159,6 +3291,12 @@
       <c r="E16">
         <v>1169383521</v>
       </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
       <c r="H16" t="s">
         <v>87</v>
       </c>
@@ -3187,10 +3325,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>65</v>
       </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
       <c r="C17">
         <v>10</v>
       </c>
@@ -3200,6 +3341,12 @@
       <c r="E17">
         <v>198925688</v>
       </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
       <c r="H17" t="s">
         <v>87</v>
       </c>
@@ -3228,10 +3375,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>66</v>
       </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
       <c r="C18">
         <v>49</v>
       </c>
@@ -3241,6 +3391,12 @@
       <c r="E18">
         <v>146197120</v>
       </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
       <c r="H18" t="s">
         <v>87</v>
       </c>
@@ -3374,10 +3530,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>67</v>
       </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
       <c r="C19">
         <v>65</v>
       </c>
@@ -3387,6 +3546,12 @@
       <c r="E19">
         <v>1214831347</v>
       </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
       <c r="H19" t="s">
         <v>87</v>
       </c>
@@ -3589,10 +3754,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>68</v>
       </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
       <c r="C20">
         <v>42</v>
       </c>
@@ -3602,6 +3770,12 @@
       <c r="E20">
         <v>2139557565</v>
       </c>
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
       <c r="H20" t="s">
         <v>87</v>
       </c>
@@ -3717,10 +3891,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>69</v>
       </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
       <c r="C21">
         <v>65</v>
       </c>
@@ -3730,6 +3907,12 @@
       <c r="E21">
         <v>683566048</v>
       </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
       <c r="H21" t="s">
         <v>87</v>
       </c>
@@ -3914,10 +4097,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>70</v>
       </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
       <c r="C22">
         <v>7</v>
       </c>
@@ -3927,6 +4113,12 @@
       <c r="E22">
         <v>1707689291</v>
       </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>88</v>
+      </c>
       <c r="H22" t="s">
         <v>87</v>
       </c>
@@ -3946,10 +4138,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>71</v>
       </c>
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
       <c r="C23">
         <v>65</v>
       </c>
@@ -3959,6 +4154,12 @@
       <c r="E23">
         <v>236380914</v>
       </c>
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
+        <v>88</v>
+      </c>
       <c r="H23" t="s">
         <v>87</v>
       </c>
@@ -4152,10 +4353,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>72</v>
       </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
       <c r="C24">
         <v>65</v>
       </c>
@@ -4165,6 +4369,12 @@
       <c r="E24">
         <v>1315947508</v>
       </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
       <c r="H24" t="s">
         <v>87</v>
       </c>
@@ -4352,10 +4562,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>73</v>
       </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
       <c r="C25">
         <v>65</v>
       </c>
@@ -4365,6 +4578,12 @@
       <c r="E25">
         <v>1402222832</v>
       </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
       <c r="H25" t="s">
         <v>87</v>
       </c>
@@ -4555,10 +4774,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>74</v>
       </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
       <c r="C26">
         <v>65</v>
       </c>
@@ -4568,6 +4790,12 @@
       <c r="E26">
         <v>1975387681</v>
       </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
       <c r="H26" t="s">
         <v>87</v>
       </c>
@@ -4755,10 +4983,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>75</v>
       </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
       <c r="C27">
         <v>65</v>
       </c>
@@ -4768,6 +4999,12 @@
       <c r="E27">
         <v>501730399</v>
       </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
       <c r="H27" t="s">
         <v>87</v>
       </c>
@@ -4958,10 +5195,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>76</v>
       </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
       <c r="C28">
         <v>65</v>
       </c>
@@ -4971,6 +5211,12 @@
       <c r="E28">
         <v>617718214</v>
       </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s">
+        <v>88</v>
+      </c>
       <c r="H28" t="s">
         <v>87</v>
       </c>
@@ -5155,10 +5401,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>77</v>
       </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
       <c r="C29">
         <v>65</v>
       </c>
@@ -5168,6 +5417,12 @@
       <c r="E29">
         <v>1707493058</v>
       </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
       <c r="H29" t="s">
         <v>87</v>
       </c>
@@ -5337,10 +5592,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>78</v>
       </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
       <c r="C30">
         <v>65</v>
       </c>
@@ -5350,6 +5608,12 @@
       <c r="E30">
         <v>180134983</v>
       </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>88</v>
+      </c>
       <c r="H30" t="s">
         <v>87</v>
       </c>
@@ -5522,10 +5786,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>79</v>
       </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
       <c r="C31">
         <v>17</v>
       </c>
@@ -5535,6 +5802,12 @@
       <c r="E31">
         <v>78973396</v>
       </c>
+      <c r="F31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>88</v>
+      </c>
       <c r="H31" t="s">
         <v>87</v>
       </c>
@@ -5584,10 +5857,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>80</v>
       </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
       <c r="C32">
         <v>4</v>
       </c>
@@ -5597,6 +5873,12 @@
       <c r="E32">
         <v>190291635</v>
       </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
       <c r="H32" t="s">
         <v>87</v>
       </c>
@@ -5607,10 +5889,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>81</v>
       </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
       <c r="C33">
         <v>2</v>
       </c>
@@ -5620,14 +5905,23 @@
       <c r="E33">
         <v>1016500076</v>
       </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s">
+        <v>88</v>
+      </c>
       <c r="H33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>82</v>
       </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
       <c r="C34">
         <v>65</v>
       </c>
@@ -5637,6 +5931,12 @@
       <c r="E34">
         <v>2028115273</v>
       </c>
+      <c r="F34" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" t="s">
+        <v>88</v>
+      </c>
       <c r="H34" t="s">
         <v>87</v>
       </c>
@@ -5830,10 +6130,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>83</v>
       </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
       <c r="C35">
         <v>21</v>
       </c>
@@ -5843,6 +6146,12 @@
       <c r="E35">
         <v>354206289</v>
       </c>
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s">
+        <v>88</v>
+      </c>
       <c r="H35" t="s">
         <v>87</v>
       </c>
@@ -5904,10 +6213,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>84</v>
       </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
       <c r="C36">
         <v>65</v>
       </c>
@@ -5917,6 +6229,12 @@
       <c r="E36">
         <v>683891753</v>
       </c>
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
       <c r="H36" t="s">
         <v>87</v>
       </c>
@@ -6098,10 +6416,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>85</v>
       </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
       <c r="C37">
         <v>65</v>
       </c>
@@ -6111,6 +6432,12 @@
       <c r="E37">
         <v>1193929855</v>
       </c>
+      <c r="F37" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
       <c r="H37" t="s">
         <v>87</v>
       </c>
@@ -6298,10 +6625,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>86</v>
       </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
       <c r="C38">
         <v>65</v>
       </c>
@@ -6311,6 +6641,12 @@
       <c r="E38">
         <v>1593832317</v>
       </c>
+      <c r="F38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" t="s">
+        <v>88</v>
+      </c>
       <c r="H38" t="s">
         <v>87</v>
       </c>
@@ -6492,9 +6828,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
       </c>
       <c r="C39">
         <v>65</v>
@@ -6505,6 +6844,12 @@
       <c r="E39">
         <v>901803443</v>
       </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s">
+        <v>88</v>
+      </c>
       <c r="H39" t="s">
         <v>87</v>
       </c>
@@ -6692,8 +7037,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
         <v>88</v>
       </c>
       <c r="C40">
@@ -6705,6 +7053,12 @@
       <c r="E40">
         <v>675754102</v>
       </c>
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s">
+        <v>88</v>
+      </c>
       <c r="H40" t="s">
         <v>87</v>
       </c>
@@ -6892,10 +7246,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>89</v>
       </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
       <c r="C41">
         <v>65</v>
       </c>
@@ -6905,6 +7262,12 @@
       <c r="E41">
         <v>1747920658</v>
       </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" t="s">
+        <v>88</v>
+      </c>
       <c r="H41" t="s">
         <v>87</v>
       </c>
@@ -7098,10 +7461,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>90</v>
       </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
       <c r="C42">
         <v>15</v>
       </c>
@@ -7111,6 +7477,12 @@
       <c r="E42">
         <v>251124155</v>
       </c>
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
       <c r="H42" t="s">
         <v>87</v>
       </c>
@@ -7154,10 +7526,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>91</v>
       </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
       <c r="C43">
         <v>6</v>
       </c>
@@ -7167,6 +7542,12 @@
       <c r="E43">
         <v>507256998</v>
       </c>
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s">
+        <v>88</v>
+      </c>
       <c r="H43" t="s">
         <v>87</v>
       </c>
@@ -7183,10 +7564,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>92</v>
       </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
       <c r="C44">
         <v>15</v>
       </c>
@@ -7196,6 +7580,12 @@
       <c r="E44">
         <v>416468080</v>
       </c>
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" t="s">
+        <v>88</v>
+      </c>
       <c r="H44" t="s">
         <v>87</v>
       </c>
@@ -7236,10 +7626,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>93</v>
       </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
       <c r="C45">
         <v>65</v>
       </c>
@@ -7249,6 +7642,12 @@
       <c r="E45">
         <v>1587419958</v>
       </c>
+      <c r="F45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s">
+        <v>88</v>
+      </c>
       <c r="H45" t="s">
         <v>87</v>
       </c>
@@ -7457,10 +7856,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>94</v>
       </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
       <c r="C46">
         <v>2</v>
       </c>
@@ -7470,14 +7872,23 @@
       <c r="E46">
         <v>915732934</v>
       </c>
+      <c r="F46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" t="s">
+        <v>88</v>
+      </c>
       <c r="H46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>95</v>
       </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
       <c r="C47">
         <v>65</v>
       </c>
@@ -7487,6 +7898,12 @@
       <c r="E47">
         <v>2028256829</v>
       </c>
+      <c r="F47" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" t="s">
+        <v>88</v>
+      </c>
       <c r="H47" t="s">
         <v>87</v>
       </c>
@@ -7680,10 +8097,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>96</v>
       </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
       <c r="C48">
         <v>65</v>
       </c>
@@ -7693,6 +8113,12 @@
       <c r="E48">
         <v>1586290819</v>
       </c>
+      <c r="F48" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" t="s">
+        <v>88</v>
+      </c>
       <c r="H48" t="s">
         <v>87</v>
       </c>
@@ -7877,10 +8303,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>97</v>
       </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
       <c r="C49">
         <v>1</v>
       </c>
@@ -7890,14 +8319,23 @@
       <c r="E49">
         <v>320243279</v>
       </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s">
+        <v>88</v>
+      </c>
       <c r="H49" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>98</v>
       </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
       <c r="C50">
         <v>65</v>
       </c>
@@ -7907,6 +8345,12 @@
       <c r="E50">
         <v>1726428287</v>
       </c>
+      <c r="F50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s">
+        <v>88</v>
+      </c>
       <c r="H50" t="s">
         <v>87</v>
       </c>
@@ -8094,10 +8538,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>99</v>
       </c>
+      <c r="B51" t="s">
+        <v>88</v>
+      </c>
       <c r="C51">
         <v>2</v>
       </c>
@@ -8107,14 +8554,23 @@
       <c r="E51">
         <v>1337324617</v>
       </c>
+      <c r="F51" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" t="s">
+        <v>88</v>
+      </c>
       <c r="H51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>100</v>
       </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
       <c r="C52">
         <v>65</v>
       </c>
@@ -8124,6 +8580,12 @@
       <c r="E52">
         <v>965128321</v>
       </c>
+      <c r="F52" t="s">
+        <v>88</v>
+      </c>
+      <c r="G52" t="s">
+        <v>88</v>
+      </c>
       <c r="H52" t="s">
         <v>87</v>
       </c>
@@ -8311,10 +8773,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>101</v>
       </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
       <c r="C53">
         <v>43</v>
       </c>
@@ -8324,6 +8789,12 @@
       <c r="E53">
         <v>1194492815</v>
       </c>
+      <c r="F53" t="s">
+        <v>88</v>
+      </c>
+      <c r="G53" t="s">
+        <v>88</v>
+      </c>
       <c r="H53" t="s">
         <v>87</v>
       </c>
@@ -8442,10 +8913,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>102</v>
       </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
       <c r="C54">
         <v>65</v>
       </c>
@@ -8455,6 +8929,12 @@
       <c r="E54">
         <v>1710799765</v>
       </c>
+      <c r="F54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s">
+        <v>88</v>
+      </c>
       <c r="H54" t="s">
         <v>87</v>
       </c>
@@ -8639,10 +9119,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>103</v>
       </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
       <c r="C55">
         <v>65</v>
       </c>
@@ -8652,6 +9135,12 @@
       <c r="E55">
         <v>1124118582</v>
       </c>
+      <c r="F55" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s">
+        <v>88</v>
+      </c>
       <c r="H55" t="s">
         <v>87</v>
       </c>
@@ -8839,10 +9328,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>104</v>
       </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
       <c r="C56">
         <v>65</v>
       </c>
@@ -8852,6 +9344,12 @@
       <c r="E56">
         <v>167944528</v>
       </c>
+      <c r="F56" t="s">
+        <v>88</v>
+      </c>
+      <c r="G56" t="s">
+        <v>88</v>
+      </c>
       <c r="H56" t="s">
         <v>87</v>
       </c>
@@ -9039,10 +9537,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>105</v>
       </c>
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
       <c r="C57">
         <v>65</v>
       </c>
@@ -9052,6 +9553,12 @@
       <c r="E57">
         <v>2003266648</v>
       </c>
+      <c r="F57" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" t="s">
+        <v>88</v>
+      </c>
       <c r="H57" t="s">
         <v>87</v>
       </c>
@@ -9236,10 +9743,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>106</v>
       </c>
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
       <c r="C58">
         <v>65</v>
       </c>
@@ -9249,6 +9759,12 @@
       <c r="E58">
         <v>30548514</v>
       </c>
+      <c r="F58" t="s">
+        <v>88</v>
+      </c>
+      <c r="G58" t="s">
+        <v>88</v>
+      </c>
       <c r="H58" t="s">
         <v>87</v>
       </c>
@@ -9424,10 +9940,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>107</v>
       </c>
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
       <c r="C59">
         <v>65</v>
       </c>
@@ -9437,6 +9956,12 @@
       <c r="E59">
         <v>18355123</v>
       </c>
+      <c r="F59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s">
+        <v>88</v>
+      </c>
       <c r="H59" t="s">
         <v>87</v>
       </c>
@@ -9618,10 +10143,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>108</v>
       </c>
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
       <c r="C60">
         <v>65</v>
       </c>
@@ -9631,6 +10159,12 @@
       <c r="E60">
         <v>172149507</v>
       </c>
+      <c r="F60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s">
+        <v>88</v>
+      </c>
       <c r="H60" t="s">
         <v>87</v>
       </c>
@@ -9815,10 +10349,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>109</v>
       </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
       <c r="C61">
         <v>65</v>
       </c>
@@ -9828,6 +10365,12 @@
       <c r="E61">
         <v>758622845</v>
       </c>
+      <c r="F61" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s">
+        <v>88</v>
+      </c>
       <c r="H61" t="s">
         <v>87</v>
       </c>
@@ -10012,10 +10555,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>110</v>
       </c>
+      <c r="B62" t="s">
+        <v>88</v>
+      </c>
       <c r="C62">
         <v>65</v>
       </c>
@@ -10025,6 +10571,12 @@
       <c r="E62">
         <v>671346311</v>
       </c>
+      <c r="F62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" t="s">
+        <v>88</v>
+      </c>
       <c r="H62" t="s">
         <v>87</v>
       </c>
@@ -10197,10 +10749,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>111</v>
       </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
       <c r="C63">
         <v>1</v>
       </c>
@@ -10210,14 +10765,23 @@
       <c r="E63">
         <v>140901924</v>
       </c>
+      <c r="F63" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" t="s">
+        <v>88</v>
+      </c>
       <c r="H63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>112</v>
       </c>
+      <c r="B64" t="s">
+        <v>88</v>
+      </c>
       <c r="C64">
         <v>65</v>
       </c>
@@ -10227,6 +10791,12 @@
       <c r="E64">
         <v>1383408454</v>
       </c>
+      <c r="F64" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" t="s">
+        <v>88</v>
+      </c>
       <c r="H64" t="s">
         <v>87</v>
       </c>
@@ -10411,10 +10981,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>113</v>
       </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
       <c r="C65">
         <v>65</v>
       </c>
@@ -10424,6 +10997,12 @@
       <c r="E65">
         <v>397309003</v>
       </c>
+      <c r="F65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
       <c r="H65" t="s">
         <v>87</v>
       </c>
@@ -10611,10 +11190,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>114</v>
       </c>
+      <c r="B66" t="s">
+        <v>88</v>
+      </c>
       <c r="C66">
         <v>21</v>
       </c>
@@ -10624,6 +11206,12 @@
       <c r="E66">
         <v>1760859636</v>
       </c>
+      <c r="F66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s">
+        <v>88</v>
+      </c>
       <c r="H66" t="s">
         <v>87</v>
       </c>
@@ -10685,10 +11273,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>115</v>
       </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
       <c r="C67">
         <v>65</v>
       </c>
@@ -10698,6 +11289,12 @@
       <c r="E67">
         <v>1564440905</v>
       </c>
+      <c r="F67" t="s">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s">
+        <v>88</v>
+      </c>
       <c r="H67" t="s">
         <v>87</v>
       </c>
@@ -10885,10 +11482,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>116</v>
       </c>
+      <c r="B68" t="s">
+        <v>88</v>
+      </c>
       <c r="C68">
         <v>65</v>
       </c>
@@ -10898,6 +11498,12 @@
       <c r="E68">
         <v>2076513643</v>
       </c>
+      <c r="F68" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s">
+        <v>88</v>
+      </c>
       <c r="H68" t="s">
         <v>87</v>
       </c>
@@ -11079,10 +11685,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>117</v>
       </c>
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
       <c r="C69">
         <v>65</v>
       </c>
@@ -11092,6 +11701,12 @@
       <c r="E69">
         <v>777474555</v>
       </c>
+      <c r="F69" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>88</v>
+      </c>
       <c r="H69" t="s">
         <v>87</v>
       </c>
@@ -11273,10 +11888,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>118</v>
       </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
       <c r="C70">
         <v>65</v>
       </c>
@@ -11286,6 +11904,12 @@
       <c r="E70">
         <v>760136598</v>
       </c>
+      <c r="F70" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s">
+        <v>88</v>
+      </c>
       <c r="H70" t="s">
         <v>87</v>
       </c>
@@ -11467,10 +12091,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>119</v>
       </c>
+      <c r="B71" t="s">
+        <v>88</v>
+      </c>
       <c r="C71">
         <v>65</v>
       </c>
@@ -11480,6 +12107,12 @@
       <c r="E71">
         <v>838056642</v>
       </c>
+      <c r="F71" t="s">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s">
+        <v>88</v>
+      </c>
       <c r="H71" t="s">
         <v>87</v>
       </c>
@@ -11664,10 +12297,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>120</v>
       </c>
+      <c r="B72" t="s">
+        <v>88</v>
+      </c>
       <c r="C72">
         <v>1</v>
       </c>
@@ -11677,14 +12313,23 @@
       <c r="E72">
         <v>1501954314</v>
       </c>
+      <c r="F72" t="s">
+        <v>88</v>
+      </c>
+      <c r="G72" t="s">
+        <v>88</v>
+      </c>
       <c r="H72" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>121</v>
       </c>
+      <c r="B73" t="s">
+        <v>88</v>
+      </c>
       <c r="C73">
         <v>65</v>
       </c>
@@ -11694,6 +12339,12 @@
       <c r="E73">
         <v>1762866374</v>
       </c>
+      <c r="F73" t="s">
+        <v>88</v>
+      </c>
+      <c r="G73" t="s">
+        <v>88</v>
+      </c>
       <c r="H73" t="s">
         <v>87</v>
       </c>
@@ -11887,10 +12538,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>122</v>
       </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
       <c r="C74">
         <v>65</v>
       </c>
@@ -11900,6 +12554,12 @@
       <c r="E74">
         <v>855894003</v>
       </c>
+      <c r="F74" t="s">
+        <v>88</v>
+      </c>
+      <c r="G74" t="s">
+        <v>88</v>
+      </c>
       <c r="H74" t="s">
         <v>87</v>
       </c>
@@ -12084,10 +12744,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>123</v>
       </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
       <c r="C75">
         <v>65</v>
       </c>
@@ -12097,6 +12760,12 @@
       <c r="E75">
         <v>1655753876</v>
       </c>
+      <c r="F75" t="s">
+        <v>88</v>
+      </c>
+      <c r="G75" t="s">
+        <v>88</v>
+      </c>
       <c r="H75" t="s">
         <v>87</v>
       </c>
@@ -12284,10 +12953,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>124</v>
       </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
       <c r="C76">
         <v>21</v>
       </c>
@@ -12297,6 +12969,12 @@
       <c r="E76">
         <v>1676927115</v>
       </c>
+      <c r="F76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G76" t="s">
+        <v>88</v>
+      </c>
       <c r="H76" t="s">
         <v>87</v>
       </c>
@@ -12358,10 +13036,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>125</v>
       </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
       <c r="C77">
         <v>4</v>
       </c>
@@ -12371,6 +13052,12 @@
       <c r="E77">
         <v>21654182</v>
       </c>
+      <c r="F77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77" t="s">
+        <v>88</v>
+      </c>
       <c r="H77" t="s">
         <v>87</v>
       </c>
@@ -12381,10 +13068,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>126</v>
       </c>
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
       <c r="C78">
         <v>65</v>
       </c>
@@ -12394,6 +13084,12 @@
       <c r="E78">
         <v>663008864</v>
       </c>
+      <c r="F78" t="s">
+        <v>88</v>
+      </c>
+      <c r="G78" t="s">
+        <v>88</v>
+      </c>
       <c r="H78" t="s">
         <v>87</v>
       </c>
@@ -12584,10 +13280,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>127</v>
       </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
       <c r="C79">
         <v>65</v>
       </c>
@@ -12597,6 +13296,12 @@
       <c r="E79">
         <v>2122990154</v>
       </c>
+      <c r="F79" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" t="s">
+        <v>88</v>
+      </c>
       <c r="H79" t="s">
         <v>87</v>
       </c>
@@ -12787,10 +13492,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>128</v>
       </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
       <c r="C80">
         <v>65</v>
       </c>
@@ -12800,6 +13508,12 @@
       <c r="E80">
         <v>2078942978</v>
       </c>
+      <c r="F80" t="s">
+        <v>88</v>
+      </c>
+      <c r="G80" t="s">
+        <v>88</v>
+      </c>
       <c r="H80" t="s">
         <v>87</v>
       </c>
@@ -12984,10 +13698,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>129</v>
       </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
       <c r="C81">
         <v>65</v>
       </c>
@@ -12997,6 +13714,12 @@
       <c r="E81">
         <v>1178397252</v>
       </c>
+      <c r="F81" t="s">
+        <v>88</v>
+      </c>
+      <c r="G81" t="s">
+        <v>88</v>
+      </c>
       <c r="H81" t="s">
         <v>87</v>
       </c>
@@ -13160,10 +13883,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>130</v>
       </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
       <c r="C82">
         <v>65</v>
       </c>
@@ -13173,6 +13899,12 @@
       <c r="E82">
         <v>1761330768</v>
       </c>
+      <c r="F82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s">
+        <v>88</v>
+      </c>
       <c r="H82" t="s">
         <v>87</v>
       </c>
@@ -13357,10 +14089,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>131</v>
       </c>
+      <c r="B83" t="s">
+        <v>88</v>
+      </c>
       <c r="C83">
         <v>4</v>
       </c>
@@ -13370,6 +14105,12 @@
       <c r="E83">
         <v>1856863045</v>
       </c>
+      <c r="F83" t="s">
+        <v>88</v>
+      </c>
+      <c r="G83" t="s">
+        <v>88</v>
+      </c>
       <c r="H83" t="s">
         <v>87</v>
       </c>
@@ -13380,10 +14121,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>132</v>
       </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
       <c r="C84">
         <v>65</v>
       </c>
@@ -13393,6 +14137,12 @@
       <c r="E84">
         <v>825514440</v>
       </c>
+      <c r="F84" t="s">
+        <v>88</v>
+      </c>
+      <c r="G84" t="s">
+        <v>88</v>
+      </c>
       <c r="H84" t="s">
         <v>87</v>
       </c>
@@ -13577,10 +14327,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>133</v>
       </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
       <c r="C85">
         <v>65</v>
       </c>
@@ -13590,6 +14343,12 @@
       <c r="E85">
         <v>242804639</v>
       </c>
+      <c r="F85" t="s">
+        <v>88</v>
+      </c>
+      <c r="G85" t="s">
+        <v>88</v>
+      </c>
       <c r="H85" t="s">
         <v>87</v>
       </c>
@@ -13774,10 +14533,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>134</v>
       </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
       <c r="C86">
         <v>0</v>
       </c>
@@ -13787,11 +14549,20 @@
       <c r="E86">
         <v>2832179</v>
       </c>
+      <c r="F86" t="s">
+        <v>88</v>
+      </c>
+      <c r="G86" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="87" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>135</v>
       </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
       <c r="C87">
         <v>65</v>
       </c>
@@ -13801,6 +14572,12 @@
       <c r="E87">
         <v>59387776</v>
       </c>
+      <c r="F87" t="s">
+        <v>88</v>
+      </c>
+      <c r="G87" t="s">
+        <v>88</v>
+      </c>
       <c r="H87" t="s">
         <v>87</v>
       </c>
@@ -13988,10 +14765,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>136</v>
       </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
       <c r="C88">
         <v>65</v>
       </c>
@@ -14001,6 +14781,12 @@
       <c r="E88">
         <v>1454716876</v>
       </c>
+      <c r="F88" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s">
+        <v>88</v>
+      </c>
       <c r="H88" t="s">
         <v>87</v>
       </c>
@@ -14188,10 +14974,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>137</v>
       </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
       <c r="C89">
         <v>65</v>
       </c>
@@ -14201,6 +14990,12 @@
       <c r="E89">
         <v>921502222</v>
       </c>
+      <c r="F89" t="s">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s">
+        <v>88</v>
+      </c>
       <c r="H89" t="s">
         <v>87</v>
       </c>
@@ -14385,10 +15180,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>138</v>
       </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
       <c r="C90">
         <v>65</v>
       </c>
@@ -14398,6 +15196,12 @@
       <c r="E90">
         <v>534667634</v>
       </c>
+      <c r="F90" t="s">
+        <v>88</v>
+      </c>
+      <c r="G90" t="s">
+        <v>88</v>
+      </c>
       <c r="H90" t="s">
         <v>87</v>
       </c>
@@ -14582,10 +15386,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>139</v>
       </c>
+      <c r="B91" t="s">
+        <v>88</v>
+      </c>
       <c r="C91">
         <v>17</v>
       </c>
@@ -14595,6 +15402,12 @@
       <c r="E91">
         <v>37513217</v>
       </c>
+      <c r="F91" t="s">
+        <v>88</v>
+      </c>
+      <c r="G91" t="s">
+        <v>88</v>
+      </c>
       <c r="H91" t="s">
         <v>87</v>
       </c>
@@ -14644,10 +15457,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>140</v>
       </c>
+      <c r="B92" t="s">
+        <v>88</v>
+      </c>
       <c r="C92">
         <v>65</v>
       </c>
@@ -14657,6 +15473,12 @@
       <c r="E92">
         <v>424081855</v>
       </c>
+      <c r="F92" t="s">
+        <v>88</v>
+      </c>
+      <c r="G92" t="s">
+        <v>88</v>
+      </c>
       <c r="H92" t="s">
         <v>87</v>
       </c>
@@ -14841,10 +15663,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>141</v>
       </c>
+      <c r="B93" t="s">
+        <v>88</v>
+      </c>
       <c r="C93">
         <v>65</v>
       </c>
@@ -14854,6 +15679,12 @@
       <c r="E93">
         <v>503758956</v>
       </c>
+      <c r="F93" t="s">
+        <v>88</v>
+      </c>
+      <c r="G93" t="s">
+        <v>88</v>
+      </c>
       <c r="H93" t="s">
         <v>87</v>
       </c>
@@ -15038,21 +15869,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>142</v>
       </c>
+      <c r="B94" t="s">
+        <v>88</v>
+      </c>
       <c r="D94" t="s">
         <v>86</v>
       </c>
       <c r="E94">
         <v>1981056462</v>
       </c>
+      <c r="F94" t="s">
+        <v>88</v>
+      </c>
+      <c r="G94" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="95" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>143</v>
       </c>
+      <c r="B95" t="s">
+        <v>88</v>
+      </c>
       <c r="C95">
         <v>39</v>
       </c>
@@ -15062,6 +15905,12 @@
       <c r="E95">
         <v>1805880053</v>
       </c>
+      <c r="F95" t="s">
+        <v>88</v>
+      </c>
+      <c r="G95" t="s">
+        <v>88</v>
+      </c>
       <c r="H95" t="s">
         <v>87</v>
       </c>
@@ -15171,10 +16020,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>144</v>
       </c>
+      <c r="B96" t="s">
+        <v>88</v>
+      </c>
       <c r="C96">
         <v>65</v>
       </c>
@@ -15184,6 +16036,12 @@
       <c r="E96">
         <v>481282073</v>
       </c>
+      <c r="F96" t="s">
+        <v>88</v>
+      </c>
+      <c r="G96" t="s">
+        <v>88</v>
+      </c>
       <c r="H96" t="s">
         <v>87</v>
       </c>
@@ -15371,10 +16229,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>145</v>
       </c>
+      <c r="B97" t="s">
+        <v>88</v>
+      </c>
       <c r="C97">
         <v>65</v>
       </c>
@@ -15384,6 +16245,12 @@
       <c r="E97">
         <v>1216013975</v>
       </c>
+      <c r="F97" t="s">
+        <v>88</v>
+      </c>
+      <c r="G97" t="s">
+        <v>88</v>
+      </c>
       <c r="H97" t="s">
         <v>87</v>
       </c>
@@ -15574,10 +16441,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>146</v>
       </c>
+      <c r="B98" t="s">
+        <v>88</v>
+      </c>
       <c r="C98">
         <v>65</v>
       </c>
@@ -15587,6 +16457,12 @@
       <c r="E98">
         <v>219822739</v>
       </c>
+      <c r="F98" t="s">
+        <v>88</v>
+      </c>
+      <c r="G98" t="s">
+        <v>88</v>
+      </c>
       <c r="H98" t="s">
         <v>87</v>
       </c>
@@ -15774,10 +16650,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>147</v>
       </c>
+      <c r="B99" t="s">
+        <v>88</v>
+      </c>
       <c r="C99">
         <v>23</v>
       </c>
@@ -15787,6 +16666,12 @@
       <c r="E99">
         <v>1433944010</v>
       </c>
+      <c r="F99" t="s">
+        <v>88</v>
+      </c>
+      <c r="G99" t="s">
+        <v>88</v>
+      </c>
       <c r="H99" t="s">
         <v>87</v>
       </c>
@@ -15851,10 +16736,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>148</v>
       </c>
+      <c r="B100" t="s">
+        <v>88</v>
+      </c>
       <c r="C100">
         <v>65</v>
       </c>
@@ -15864,6 +16752,12 @@
       <c r="E100">
         <v>1913891393</v>
       </c>
+      <c r="F100" t="s">
+        <v>88</v>
+      </c>
+      <c r="G100" t="s">
+        <v>88</v>
+      </c>
       <c r="H100" t="s">
         <v>87</v>
       </c>
@@ -16048,21 +16942,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>149</v>
       </c>
+      <c r="B101" t="s">
+        <v>88</v>
+      </c>
       <c r="D101" t="s">
         <v>86</v>
       </c>
       <c r="E101">
         <v>1780248321</v>
       </c>
+      <c r="F101" t="s">
+        <v>88</v>
+      </c>
+      <c r="G101" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="102" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>150</v>
       </c>
+      <c r="B102" t="s">
+        <v>88</v>
+      </c>
       <c r="C102">
         <v>23</v>
       </c>
@@ -16072,6 +16978,12 @@
       <c r="E102">
         <v>172153150</v>
       </c>
+      <c r="F102" t="s">
+        <v>88</v>
+      </c>
+      <c r="G102" t="s">
+        <v>88</v>
+      </c>
       <c r="H102" t="s">
         <v>87</v>
       </c>
@@ -16136,10 +17048,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>151</v>
       </c>
+      <c r="B103" t="s">
+        <v>88</v>
+      </c>
       <c r="C103">
         <v>65</v>
       </c>
@@ -16149,6 +17064,12 @@
       <c r="E103">
         <v>320341539</v>
       </c>
+      <c r="F103" t="s">
+        <v>88</v>
+      </c>
+      <c r="G103" t="s">
+        <v>88</v>
+      </c>
       <c r="H103" t="s">
         <v>87</v>
       </c>
@@ -16333,10 +17254,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>152</v>
       </c>
+      <c r="B104" t="s">
+        <v>88</v>
+      </c>
       <c r="C104">
         <v>65</v>
       </c>
@@ -16346,6 +17270,12 @@
       <c r="E104">
         <v>1291564560</v>
       </c>
+      <c r="F104" t="s">
+        <v>88</v>
+      </c>
+      <c r="G104" t="s">
+        <v>88</v>
+      </c>
       <c r="H104" t="s">
         <v>87</v>
       </c>
@@ -16530,10 +17460,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>153</v>
       </c>
+      <c r="B105" t="s">
+        <v>88</v>
+      </c>
       <c r="C105">
         <v>65</v>
       </c>
@@ -16543,6 +17476,12 @@
       <c r="E105">
         <v>1796670790</v>
       </c>
+      <c r="F105" t="s">
+        <v>88</v>
+      </c>
+      <c r="G105" t="s">
+        <v>88</v>
+      </c>
       <c r="H105" t="s">
         <v>87</v>
       </c>
@@ -16724,10 +17663,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>154</v>
       </c>
+      <c r="B106" t="s">
+        <v>88</v>
+      </c>
       <c r="C106">
         <v>65</v>
       </c>
@@ -16737,6 +17679,12 @@
       <c r="E106">
         <v>1259659571</v>
       </c>
+      <c r="F106" t="s">
+        <v>88</v>
+      </c>
+      <c r="G106" t="s">
+        <v>88</v>
+      </c>
       <c r="H106" t="s">
         <v>87</v>
       </c>
@@ -16915,10 +17863,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>155</v>
       </c>
+      <c r="B107" t="s">
+        <v>88</v>
+      </c>
       <c r="C107">
         <v>65</v>
       </c>
@@ -16928,6 +17879,12 @@
       <c r="E107">
         <v>192101173</v>
       </c>
+      <c r="F107" t="s">
+        <v>88</v>
+      </c>
+      <c r="G107" t="s">
+        <v>88</v>
+      </c>
       <c r="H107" t="s">
         <v>87</v>
       </c>
@@ -17115,10 +18072,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>156</v>
       </c>
+      <c r="B108" t="s">
+        <v>88</v>
+      </c>
       <c r="C108">
         <v>1</v>
       </c>
@@ -17128,14 +18088,23 @@
       <c r="E108">
         <v>1735378399</v>
       </c>
+      <c r="F108" t="s">
+        <v>88</v>
+      </c>
+      <c r="G108" t="s">
+        <v>88</v>
+      </c>
       <c r="H108" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>157</v>
       </c>
+      <c r="B109" t="s">
+        <v>88</v>
+      </c>
       <c r="C109">
         <v>65</v>
       </c>
@@ -17145,6 +18114,12 @@
       <c r="E109">
         <v>85336838</v>
       </c>
+      <c r="F109" t="s">
+        <v>88</v>
+      </c>
+      <c r="G109" t="s">
+        <v>88</v>
+      </c>
       <c r="H109" t="s">
         <v>87</v>
       </c>
@@ -17329,21 +18304,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>158</v>
       </c>
+      <c r="B110" t="s">
+        <v>88</v>
+      </c>
       <c r="D110" t="s">
         <v>86</v>
       </c>
       <c r="E110">
         <v>699000782</v>
       </c>
+      <c r="F110" t="s">
+        <v>88</v>
+      </c>
+      <c r="G110" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="111" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>159</v>
       </c>
+      <c r="B111" t="s">
+        <v>88</v>
+      </c>
       <c r="C111">
         <v>65</v>
       </c>
@@ -17353,6 +18340,12 @@
       <c r="E111">
         <v>934070402</v>
       </c>
+      <c r="F111" t="s">
+        <v>88</v>
+      </c>
+      <c r="G111" t="s">
+        <v>88</v>
+      </c>
       <c r="H111" t="s">
         <v>87</v>
       </c>
@@ -17540,10 +18533,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>160</v>
       </c>
+      <c r="B112" t="s">
+        <v>88</v>
+      </c>
       <c r="C112">
         <v>65</v>
       </c>
@@ -17553,6 +18549,12 @@
       <c r="E112">
         <v>122315739</v>
       </c>
+      <c r="F112" t="s">
+        <v>88</v>
+      </c>
+      <c r="G112" t="s">
+        <v>88</v>
+      </c>
       <c r="H112" t="s">
         <v>87</v>
       </c>
@@ -17737,10 +18739,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>161</v>
       </c>
+      <c r="B113" t="s">
+        <v>88</v>
+      </c>
       <c r="C113">
         <v>65</v>
       </c>
@@ -17750,6 +18755,12 @@
       <c r="E113">
         <v>95391265</v>
       </c>
+      <c r="F113" t="s">
+        <v>88</v>
+      </c>
+      <c r="G113" t="s">
+        <v>88</v>
+      </c>
       <c r="H113" t="s">
         <v>87</v>
       </c>
@@ -17937,10 +18948,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>162</v>
       </c>
+      <c r="B114" t="s">
+        <v>88</v>
+      </c>
       <c r="C114">
         <v>65</v>
       </c>
@@ -17950,6 +18964,12 @@
       <c r="E114">
         <v>1676335586</v>
       </c>
+      <c r="F114" t="s">
+        <v>88</v>
+      </c>
+      <c r="G114" t="s">
+        <v>88</v>
+      </c>
       <c r="H114" t="s">
         <v>87</v>
       </c>
@@ -18128,10 +19148,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>163</v>
       </c>
+      <c r="B115" t="s">
+        <v>88</v>
+      </c>
       <c r="C115">
         <v>1</v>
       </c>
@@ -18141,14 +19164,23 @@
       <c r="E115">
         <v>649798429</v>
       </c>
+      <c r="F115" t="s">
+        <v>88</v>
+      </c>
+      <c r="G115" t="s">
+        <v>88</v>
+      </c>
       <c r="H115" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="116" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>164</v>
       </c>
+      <c r="B116" t="s">
+        <v>88</v>
+      </c>
       <c r="C116">
         <v>65</v>
       </c>
@@ -18158,6 +19190,12 @@
       <c r="E116">
         <v>1341270876</v>
       </c>
+      <c r="F116" t="s">
+        <v>88</v>
+      </c>
+      <c r="G116" t="s">
+        <v>88</v>
+      </c>
       <c r="H116" t="s">
         <v>87</v>
       </c>
@@ -18342,10 +19380,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>165</v>
       </c>
+      <c r="B117" t="s">
+        <v>88</v>
+      </c>
       <c r="C117">
         <v>65</v>
       </c>
@@ -18355,6 +19396,12 @@
       <c r="E117">
         <v>1700823553</v>
       </c>
+      <c r="F117" t="s">
+        <v>88</v>
+      </c>
+      <c r="G117" t="s">
+        <v>88</v>
+      </c>
       <c r="H117" t="s">
         <v>87</v>
       </c>
@@ -18542,10 +19589,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>166</v>
       </c>
+      <c r="B118" t="s">
+        <v>88</v>
+      </c>
       <c r="C118">
         <v>65</v>
       </c>
@@ -18555,6 +19605,12 @@
       <c r="E118">
         <v>154886899</v>
       </c>
+      <c r="F118" t="s">
+        <v>88</v>
+      </c>
+      <c r="G118" t="s">
+        <v>88</v>
+      </c>
       <c r="H118" t="s">
         <v>87</v>
       </c>
@@ -18736,10 +19792,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>167</v>
       </c>
+      <c r="B119" t="s">
+        <v>88</v>
+      </c>
       <c r="C119">
         <v>65</v>
       </c>
@@ -18749,6 +19808,12 @@
       <c r="E119">
         <v>888271725</v>
       </c>
+      <c r="F119" t="s">
+        <v>88</v>
+      </c>
+      <c r="G119" t="s">
+        <v>88</v>
+      </c>
       <c r="H119" t="s">
         <v>87</v>
       </c>
@@ -18933,10 +19998,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>168</v>
       </c>
+      <c r="B120" t="s">
+        <v>88</v>
+      </c>
       <c r="C120">
         <v>65</v>
       </c>
@@ -18946,6 +20014,12 @@
       <c r="E120">
         <v>427997033</v>
       </c>
+      <c r="F120" t="s">
+        <v>88</v>
+      </c>
+      <c r="G120" t="s">
+        <v>88</v>
+      </c>
       <c r="H120" t="s">
         <v>87</v>
       </c>
@@ -19145,10 +20219,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>169</v>
       </c>
+      <c r="B121" t="s">
+        <v>88</v>
+      </c>
       <c r="C121">
         <v>65</v>
       </c>
@@ -19158,6 +20235,12 @@
       <c r="E121">
         <v>1305360358</v>
       </c>
+      <c r="F121" t="s">
+        <v>88</v>
+      </c>
+      <c r="G121" t="s">
+        <v>88</v>
+      </c>
       <c r="H121" t="s">
         <v>87</v>
       </c>
@@ -19345,10 +20428,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>170</v>
       </c>
+      <c r="B122" t="s">
+        <v>88</v>
+      </c>
       <c r="C122">
         <v>65</v>
       </c>
@@ -19358,6 +20444,12 @@
       <c r="E122">
         <v>402500385</v>
       </c>
+      <c r="F122" t="s">
+        <v>88</v>
+      </c>
+      <c r="G122" t="s">
+        <v>88</v>
+      </c>
       <c r="H122" t="s">
         <v>87</v>
       </c>
@@ -19548,10 +20640,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>171</v>
       </c>
+      <c r="B123" t="s">
+        <v>88</v>
+      </c>
       <c r="C123">
         <v>65</v>
       </c>
@@ -19561,6 +20656,12 @@
       <c r="E123">
         <v>1054938499</v>
       </c>
+      <c r="F123" t="s">
+        <v>88</v>
+      </c>
+      <c r="G123" t="s">
+        <v>88</v>
+      </c>
       <c r="H123" t="s">
         <v>87</v>
       </c>
@@ -19745,10 +20846,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>172</v>
       </c>
+      <c r="B124" t="s">
+        <v>88</v>
+      </c>
       <c r="C124">
         <v>65</v>
       </c>
@@ -19758,6 +20862,12 @@
       <c r="E124">
         <v>123704579</v>
       </c>
+      <c r="F124" t="s">
+        <v>88</v>
+      </c>
+      <c r="G124" t="s">
+        <v>88</v>
+      </c>
       <c r="H124" t="s">
         <v>87</v>
       </c>
@@ -19945,10 +21055,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>173</v>
       </c>
+      <c r="B125" t="s">
+        <v>88</v>
+      </c>
       <c r="C125">
         <v>65</v>
       </c>
@@ -19958,6 +21071,12 @@
       <c r="E125">
         <v>637009605</v>
       </c>
+      <c r="F125" t="s">
+        <v>88</v>
+      </c>
+      <c r="G125" t="s">
+        <v>88</v>
+      </c>
       <c r="H125" t="s">
         <v>87</v>
       </c>
@@ -20148,10 +21267,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>174</v>
       </c>
+      <c r="B126" t="s">
+        <v>88</v>
+      </c>
       <c r="C126">
         <v>65</v>
       </c>
@@ -20161,6 +21283,12 @@
       <c r="E126">
         <v>1594545785</v>
       </c>
+      <c r="F126" t="s">
+        <v>88</v>
+      </c>
+      <c r="G126" t="s">
+        <v>88</v>
+      </c>
       <c r="H126" t="s">
         <v>87</v>
       </c>
@@ -20354,10 +21482,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>175</v>
       </c>
+      <c r="B127" t="s">
+        <v>88</v>
+      </c>
       <c r="C127">
         <v>65</v>
       </c>
@@ -20367,6 +21498,12 @@
       <c r="E127">
         <v>1646336672</v>
       </c>
+      <c r="F127" t="s">
+        <v>88</v>
+      </c>
+      <c r="G127" t="s">
+        <v>88</v>
+      </c>
       <c r="H127" t="s">
         <v>87</v>
       </c>
@@ -20548,10 +21685,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>176</v>
       </c>
+      <c r="B128" t="s">
+        <v>88</v>
+      </c>
       <c r="C128">
         <v>10</v>
       </c>
@@ -20561,6 +21701,12 @@
       <c r="E128">
         <v>860833340</v>
       </c>
+      <c r="F128" t="s">
+        <v>88</v>
+      </c>
+      <c r="G128" t="s">
+        <v>88</v>
+      </c>
       <c r="H128" t="s">
         <v>87</v>
       </c>
@@ -20589,10 +21735,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>177</v>
       </c>
+      <c r="B129" t="s">
+        <v>88</v>
+      </c>
       <c r="C129">
         <v>2</v>
       </c>
@@ -20602,14 +21751,23 @@
       <c r="E129">
         <v>1789321974</v>
       </c>
+      <c r="F129" t="s">
+        <v>88</v>
+      </c>
+      <c r="G129" t="s">
+        <v>88</v>
+      </c>
       <c r="H129" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="130" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>178</v>
       </c>
+      <c r="B130" t="s">
+        <v>88</v>
+      </c>
       <c r="C130">
         <v>65</v>
       </c>
@@ -20619,6 +21777,12 @@
       <c r="E130">
         <v>208992702</v>
       </c>
+      <c r="F130" t="s">
+        <v>88</v>
+      </c>
+      <c r="G130" t="s">
+        <v>88</v>
+      </c>
       <c r="H130" t="s">
         <v>87</v>
       </c>
@@ -20809,10 +21973,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>179</v>
       </c>
+      <c r="B131" t="s">
+        <v>88</v>
+      </c>
       <c r="C131">
         <v>65</v>
       </c>
@@ -20822,6 +21989,12 @@
       <c r="E131">
         <v>660340018</v>
       </c>
+      <c r="F131" t="s">
+        <v>88</v>
+      </c>
+      <c r="G131" t="s">
+        <v>88</v>
+      </c>
       <c r="H131" t="s">
         <v>87</v>
       </c>
@@ -21018,10 +22191,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>180</v>
       </c>
+      <c r="B132" t="s">
+        <v>88</v>
+      </c>
       <c r="C132">
         <v>5</v>
       </c>
@@ -21031,6 +22207,12 @@
       <c r="E132">
         <v>1379783198</v>
       </c>
+      <c r="F132" t="s">
+        <v>88</v>
+      </c>
+      <c r="G132" t="s">
+        <v>88</v>
+      </c>
       <c r="H132" t="s">
         <v>87</v>
       </c>
@@ -21224,10 +22406,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>181</v>
       </c>
+      <c r="B133" t="s">
+        <v>88</v>
+      </c>
       <c r="C133">
         <v>1</v>
       </c>
@@ -21237,14 +22422,23 @@
       <c r="E133">
         <v>1973439876</v>
       </c>
+      <c r="F133" t="s">
+        <v>88</v>
+      </c>
+      <c r="G133" t="s">
+        <v>88</v>
+      </c>
       <c r="H133" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="134" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>182</v>
       </c>
+      <c r="B134" t="s">
+        <v>88</v>
+      </c>
       <c r="C134">
         <v>5</v>
       </c>
@@ -21254,6 +22448,12 @@
       <c r="E134">
         <v>1824669017</v>
       </c>
+      <c r="F134" t="s">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s">
+        <v>88</v>
+      </c>
       <c r="H134" t="s">
         <v>87</v>
       </c>
@@ -21441,10 +22641,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>183</v>
       </c>
+      <c r="B135" t="s">
+        <v>88</v>
+      </c>
       <c r="C135">
         <v>5</v>
       </c>
@@ -21454,6 +22657,12 @@
       <c r="E135">
         <v>1740593112</v>
       </c>
+      <c r="F135" t="s">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s">
+        <v>88</v>
+      </c>
       <c r="H135" t="s">
         <v>87</v>
       </c>
@@ -21644,10 +22853,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>184</v>
       </c>
+      <c r="B136" t="s">
+        <v>88</v>
+      </c>
       <c r="C136">
         <v>5</v>
       </c>
@@ -21657,6 +22869,12 @@
       <c r="E136">
         <v>2122387598</v>
       </c>
+      <c r="F136" t="s">
+        <v>88</v>
+      </c>
+      <c r="G136" t="s">
+        <v>88</v>
+      </c>
       <c r="H136" t="s">
         <v>87</v>
       </c>
@@ -21850,10 +23068,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>185</v>
       </c>
+      <c r="B137" t="s">
+        <v>88</v>
+      </c>
       <c r="C137">
         <v>5</v>
       </c>
@@ -21863,6 +23084,12 @@
       <c r="E137">
         <v>45177994</v>
       </c>
+      <c r="F137" t="s">
+        <v>88</v>
+      </c>
+      <c r="G137" t="s">
+        <v>88</v>
+      </c>
       <c r="H137" t="s">
         <v>87</v>
       </c>
@@ -22044,10 +23271,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>186</v>
       </c>
+      <c r="B138" t="s">
+        <v>88</v>
+      </c>
       <c r="C138">
         <v>2</v>
       </c>
@@ -22057,6 +23287,12 @@
       <c r="E138">
         <v>1251100495</v>
       </c>
+      <c r="F138" t="s">
+        <v>88</v>
+      </c>
+      <c r="G138" t="s">
+        <v>88</v>
+      </c>
       <c r="H138" t="s">
         <v>87</v>
       </c>
@@ -22121,10 +23357,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>187</v>
       </c>
+      <c r="B139" t="s">
+        <v>88</v>
+      </c>
       <c r="C139">
         <v>5</v>
       </c>
@@ -22134,6 +23373,12 @@
       <c r="E139">
         <v>1178816100</v>
       </c>
+      <c r="F139" t="s">
+        <v>88</v>
+      </c>
+      <c r="G139" t="s">
+        <v>88</v>
+      </c>
       <c r="H139" t="s">
         <v>87</v>
       </c>
@@ -22321,10 +23566,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>188</v>
       </c>
+      <c r="B140" t="s">
+        <v>88</v>
+      </c>
       <c r="C140">
         <v>5</v>
       </c>
@@ -22334,6 +23582,12 @@
       <c r="E140">
         <v>1751853191</v>
       </c>
+      <c r="F140" t="s">
+        <v>88</v>
+      </c>
+      <c r="G140" t="s">
+        <v>88</v>
+      </c>
       <c r="H140" t="s">
         <v>87</v>
       </c>
@@ -22524,10 +23778,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>189</v>
       </c>
+      <c r="B141" t="s">
+        <v>88</v>
+      </c>
       <c r="C141">
         <v>5</v>
       </c>
@@ -22537,6 +23794,12 @@
       <c r="E141">
         <v>782130991</v>
       </c>
+      <c r="F141" t="s">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s">
+        <v>88</v>
+      </c>
       <c r="H141" t="s">
         <v>87</v>
       </c>
@@ -22727,10 +23990,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>190</v>
       </c>
+      <c r="B142" t="s">
+        <v>88</v>
+      </c>
       <c r="C142">
         <v>5</v>
       </c>
@@ -22740,6 +24006,12 @@
       <c r="E142">
         <v>1830768448</v>
       </c>
+      <c r="F142" t="s">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s">
+        <v>88</v>
+      </c>
       <c r="H142" t="s">
         <v>87</v>
       </c>
@@ -22936,10 +24208,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>191</v>
       </c>
+      <c r="B143" t="s">
+        <v>88</v>
+      </c>
       <c r="C143">
         <v>5</v>
       </c>
@@ -22949,6 +24224,12 @@
       <c r="E143">
         <v>696320151</v>
       </c>
+      <c r="F143" t="s">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s">
+        <v>88</v>
+      </c>
       <c r="H143" t="s">
         <v>87</v>
       </c>
@@ -23130,10 +24411,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>192</v>
       </c>
+      <c r="B144" t="s">
+        <v>88</v>
+      </c>
       <c r="C144">
         <v>5</v>
       </c>
@@ -23143,6 +24427,12 @@
       <c r="E144">
         <v>15423800</v>
       </c>
+      <c r="F144" t="s">
+        <v>88</v>
+      </c>
+      <c r="G144" t="s">
+        <v>88</v>
+      </c>
       <c r="H144" t="s">
         <v>87</v>
       </c>
@@ -23339,10 +24629,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>193</v>
       </c>
+      <c r="B145" t="s">
+        <v>88</v>
+      </c>
       <c r="C145">
         <v>5</v>
       </c>
@@ -23352,6 +24645,12 @@
       <c r="E145">
         <v>230788984</v>
       </c>
+      <c r="F145" t="s">
+        <v>88</v>
+      </c>
+      <c r="G145" t="s">
+        <v>88</v>
+      </c>
       <c r="H145" t="s">
         <v>87</v>
       </c>
@@ -23563,10 +24862,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>194</v>
       </c>
+      <c r="B146" t="s">
+        <v>88</v>
+      </c>
       <c r="C146">
         <v>5</v>
       </c>
@@ -23576,6 +24878,12 @@
       <c r="E146">
         <v>737354470</v>
       </c>
+      <c r="F146" t="s">
+        <v>88</v>
+      </c>
+      <c r="G146" t="s">
+        <v>88</v>
+      </c>
       <c r="H146" t="s">
         <v>87</v>
       </c>
@@ -23763,10 +25071,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>195</v>
       </c>
+      <c r="B147" t="s">
+        <v>88</v>
+      </c>
       <c r="C147">
         <v>1</v>
       </c>
@@ -23776,14 +25087,23 @@
       <c r="E147">
         <v>260572077</v>
       </c>
+      <c r="F147" t="s">
+        <v>88</v>
+      </c>
+      <c r="G147" t="s">
+        <v>88</v>
+      </c>
       <c r="H147" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="148" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>196</v>
       </c>
+      <c r="B148" t="s">
+        <v>88</v>
+      </c>
       <c r="C148">
         <v>5</v>
       </c>
@@ -23793,6 +25113,12 @@
       <c r="E148">
         <v>2122266458</v>
       </c>
+      <c r="F148" t="s">
+        <v>88</v>
+      </c>
+      <c r="G148" t="s">
+        <v>88</v>
+      </c>
       <c r="H148" t="s">
         <v>87</v>
       </c>
@@ -23977,10 +25303,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>197</v>
       </c>
+      <c r="B149" t="s">
+        <v>88</v>
+      </c>
       <c r="C149">
         <v>1</v>
       </c>
@@ -23990,14 +25319,23 @@
       <c r="E149">
         <v>1324309231</v>
       </c>
+      <c r="F149" t="s">
+        <v>88</v>
+      </c>
+      <c r="G149" t="s">
+        <v>88</v>
+      </c>
       <c r="H149" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="150" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>198</v>
       </c>
+      <c r="B150" t="s">
+        <v>88</v>
+      </c>
       <c r="C150">
         <v>5</v>
       </c>
@@ -24007,6 +25345,12 @@
       <c r="E150">
         <v>613671826</v>
       </c>
+      <c r="F150" t="s">
+        <v>88</v>
+      </c>
+      <c r="G150" t="s">
+        <v>88</v>
+      </c>
       <c r="H150" t="s">
         <v>87</v>
       </c>
@@ -24194,10 +25538,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>199</v>
       </c>
+      <c r="B151" t="s">
+        <v>88</v>
+      </c>
       <c r="C151">
         <v>5</v>
       </c>
@@ -24207,6 +25554,12 @@
       <c r="E151">
         <v>1357952804</v>
       </c>
+      <c r="F151" t="s">
+        <v>88</v>
+      </c>
+      <c r="G151" t="s">
+        <v>88</v>
+      </c>
       <c r="H151" t="s">
         <v>87</v>
       </c>
@@ -24394,10 +25747,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>200</v>
       </c>
+      <c r="B152" t="s">
+        <v>88</v>
+      </c>
       <c r="C152">
         <v>-1</v>
       </c>
@@ -24407,22 +25763,40 @@
       <c r="E152">
         <v>218248190</v>
       </c>
+      <c r="F152" t="s">
+        <v>88</v>
+      </c>
+      <c r="G152" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="153" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>201</v>
       </c>
+      <c r="B153" t="s">
+        <v>88</v>
+      </c>
       <c r="D153" t="s">
         <v>86</v>
       </c>
       <c r="E153">
         <v>31609329</v>
       </c>
+      <c r="F153" t="s">
+        <v>88</v>
+      </c>
+      <c r="G153" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="154" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>202</v>
       </c>
+      <c r="B154" t="s">
+        <v>88</v>
+      </c>
       <c r="C154">
         <v>5</v>
       </c>
@@ -24432,6 +25806,12 @@
       <c r="E154">
         <v>612283237</v>
       </c>
+      <c r="F154" t="s">
+        <v>88</v>
+      </c>
+      <c r="G154" t="s">
+        <v>88</v>
+      </c>
       <c r="H154" t="s">
         <v>87</v>
       </c>
@@ -24616,10 +25996,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>203</v>
       </c>
+      <c r="B155" t="s">
+        <v>88</v>
+      </c>
       <c r="C155">
         <v>5</v>
       </c>
@@ -24629,6 +26012,12 @@
       <c r="E155">
         <v>557130661</v>
       </c>
+      <c r="F155" t="s">
+        <v>88</v>
+      </c>
+      <c r="G155" t="s">
+        <v>88</v>
+      </c>
       <c r="H155" t="s">
         <v>87</v>
       </c>
@@ -24816,10 +26205,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>204</v>
       </c>
+      <c r="B156" t="s">
+        <v>88</v>
+      </c>
       <c r="C156">
         <v>1</v>
       </c>
@@ -24829,14 +26221,23 @@
       <c r="E156">
         <v>1199036928</v>
       </c>
+      <c r="F156" t="s">
+        <v>88</v>
+      </c>
+      <c r="G156" t="s">
+        <v>88</v>
+      </c>
       <c r="H156" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="157" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>205</v>
       </c>
+      <c r="B157" t="s">
+        <v>88</v>
+      </c>
       <c r="C157">
         <v>1</v>
       </c>
@@ -24846,14 +26247,23 @@
       <c r="E157">
         <v>1668165775</v>
       </c>
+      <c r="F157" t="s">
+        <v>88</v>
+      </c>
+      <c r="G157" t="s">
+        <v>88</v>
+      </c>
       <c r="H157" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="158" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>206</v>
       </c>
+      <c r="B158" t="s">
+        <v>88</v>
+      </c>
       <c r="C158">
         <v>5</v>
       </c>
@@ -24863,6 +26273,12 @@
       <c r="E158">
         <v>540664411</v>
       </c>
+      <c r="F158" t="s">
+        <v>88</v>
+      </c>
+      <c r="G158" t="s">
+        <v>88</v>
+      </c>
       <c r="H158" t="s">
         <v>87</v>
       </c>
@@ -25050,10 +26466,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>207</v>
       </c>
+      <c r="B159" t="s">
+        <v>88</v>
+      </c>
       <c r="C159">
         <v>5</v>
       </c>
@@ -25063,6 +26482,12 @@
       <c r="E159">
         <v>1027713527</v>
       </c>
+      <c r="F159" t="s">
+        <v>88</v>
+      </c>
+      <c r="G159" t="s">
+        <v>88</v>
+      </c>
       <c r="H159" t="s">
         <v>87</v>
       </c>
@@ -25247,10 +26672,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>208</v>
       </c>
+      <c r="B160" t="s">
+        <v>88</v>
+      </c>
       <c r="C160">
         <v>5</v>
       </c>
@@ -25260,6 +26688,12 @@
       <c r="E160">
         <v>1080800546</v>
       </c>
+      <c r="F160" t="s">
+        <v>88</v>
+      </c>
+      <c r="G160" t="s">
+        <v>88</v>
+      </c>
       <c r="H160" t="s">
         <v>87</v>
       </c>
@@ -25447,10 +26881,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>209</v>
       </c>
+      <c r="B161" t="s">
+        <v>88</v>
+      </c>
       <c r="C161">
         <v>5</v>
       </c>
@@ -25460,6 +26897,12 @@
       <c r="E161">
         <v>1560450808</v>
       </c>
+      <c r="F161" t="s">
+        <v>88</v>
+      </c>
+      <c r="G161" t="s">
+        <v>88</v>
+      </c>
       <c r="H161" t="s">
         <v>87</v>
       </c>
@@ -25647,10 +27090,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>210</v>
       </c>
+      <c r="B162" t="s">
+        <v>88</v>
+      </c>
       <c r="C162">
         <v>5</v>
       </c>
@@ -25660,6 +27106,12 @@
       <c r="E162">
         <v>1547459070</v>
       </c>
+      <c r="F162" t="s">
+        <v>88</v>
+      </c>
+      <c r="G162" t="s">
+        <v>88</v>
+      </c>
       <c r="H162" t="s">
         <v>87</v>
       </c>
@@ -25847,10 +27299,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>211</v>
       </c>
+      <c r="B163" t="s">
+        <v>88</v>
+      </c>
       <c r="C163">
         <v>5</v>
       </c>
@@ -25860,6 +27315,12 @@
       <c r="E163">
         <v>1016489971</v>
       </c>
+      <c r="F163" t="s">
+        <v>88</v>
+      </c>
+      <c r="G163" t="s">
+        <v>88</v>
+      </c>
       <c r="H163" t="s">
         <v>87</v>
       </c>
@@ -26050,10 +27511,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>212</v>
       </c>
+      <c r="B164" t="s">
+        <v>88</v>
+      </c>
       <c r="C164">
         <v>4</v>
       </c>
@@ -26063,14 +27527,23 @@
       <c r="E164">
         <v>379135079</v>
       </c>
+      <c r="F164" t="s">
+        <v>88</v>
+      </c>
+      <c r="G164" t="s">
+        <v>88</v>
+      </c>
       <c r="H164" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="165" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>213</v>
       </c>
+      <c r="B165" t="s">
+        <v>88</v>
+      </c>
       <c r="C165">
         <v>5</v>
       </c>
@@ -26080,6 +27553,12 @@
       <c r="E165">
         <v>1137197572</v>
       </c>
+      <c r="F165" t="s">
+        <v>88</v>
+      </c>
+      <c r="G165" t="s">
+        <v>88</v>
+      </c>
       <c r="H165" t="s">
         <v>87</v>
       </c>
@@ -26258,10 +27737,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>214</v>
       </c>
+      <c r="B166" t="s">
+        <v>88</v>
+      </c>
       <c r="C166">
         <v>5</v>
       </c>
@@ -26271,6 +27753,12 @@
       <c r="E166">
         <v>1094571839</v>
       </c>
+      <c r="F166" t="s">
+        <v>88</v>
+      </c>
+      <c r="G166" t="s">
+        <v>88</v>
+      </c>
       <c r="H166" t="s">
         <v>87</v>
       </c>
@@ -26461,10 +27949,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>215</v>
       </c>
+      <c r="B167" t="s">
+        <v>88</v>
+      </c>
       <c r="C167">
         <v>5</v>
       </c>
@@ -26474,6 +27965,12 @@
       <c r="E167">
         <v>1212641205</v>
       </c>
+      <c r="F167" t="s">
+        <v>88</v>
+      </c>
+      <c r="G167" t="s">
+        <v>88</v>
+      </c>
       <c r="H167" t="s">
         <v>87</v>
       </c>
@@ -26658,10 +28155,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>216</v>
       </c>
+      <c r="B168" t="s">
+        <v>88</v>
+      </c>
       <c r="C168">
         <v>5</v>
       </c>
@@ -26671,6 +28171,12 @@
       <c r="E168">
         <v>271888060</v>
       </c>
+      <c r="F168" t="s">
+        <v>88</v>
+      </c>
+      <c r="G168" t="s">
+        <v>88</v>
+      </c>
       <c r="H168" t="s">
         <v>87</v>
       </c>
@@ -26855,10 +28361,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>217</v>
       </c>
+      <c r="B169" t="s">
+        <v>88</v>
+      </c>
       <c r="C169">
         <v>5</v>
       </c>
@@ -26868,6 +28377,12 @@
       <c r="E169">
         <v>1686224323</v>
       </c>
+      <c r="F169" t="s">
+        <v>88</v>
+      </c>
+      <c r="G169" t="s">
+        <v>88</v>
+      </c>
       <c r="H169" t="s">
         <v>87</v>
       </c>
@@ -27052,10 +28567,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>218</v>
       </c>
+      <c r="B170" t="s">
+        <v>88</v>
+      </c>
       <c r="C170">
         <v>5</v>
       </c>
@@ -27065,6 +28583,12 @@
       <c r="E170">
         <v>1372526238</v>
       </c>
+      <c r="F170" t="s">
+        <v>88</v>
+      </c>
+      <c r="G170" t="s">
+        <v>88</v>
+      </c>
       <c r="H170" t="s">
         <v>87</v>
       </c>
@@ -27255,10 +28779,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>219</v>
       </c>
+      <c r="B171" t="s">
+        <v>88</v>
+      </c>
       <c r="C171">
         <v>5</v>
       </c>
@@ -27268,6 +28795,12 @@
       <c r="E171">
         <v>1490843798</v>
       </c>
+      <c r="F171" t="s">
+        <v>88</v>
+      </c>
+      <c r="G171" t="s">
+        <v>88</v>
+      </c>
       <c r="H171" t="s">
         <v>87</v>
       </c>
@@ -27455,10 +28988,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>220</v>
       </c>
+      <c r="B172" t="s">
+        <v>88</v>
+      </c>
       <c r="C172">
         <v>5</v>
       </c>
@@ -27468,6 +29004,12 @@
       <c r="E172">
         <v>22175472</v>
       </c>
+      <c r="F172" t="s">
+        <v>88</v>
+      </c>
+      <c r="G172" t="s">
+        <v>88</v>
+      </c>
       <c r="H172" t="s">
         <v>87</v>
       </c>
@@ -27658,10 +29200,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>221</v>
       </c>
+      <c r="B173" t="s">
+        <v>88</v>
+      </c>
       <c r="C173">
         <v>5</v>
       </c>
@@ -27671,6 +29216,12 @@
       <c r="E173">
         <v>16267583</v>
       </c>
+      <c r="F173" t="s">
+        <v>88</v>
+      </c>
+      <c r="G173" t="s">
+        <v>88</v>
+      </c>
       <c r="H173" t="s">
         <v>87</v>
       </c>
@@ -27858,10 +29409,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>222</v>
       </c>
+      <c r="B174" t="s">
+        <v>88</v>
+      </c>
       <c r="C174">
         <v>5</v>
       </c>
@@ -27871,6 +29425,12 @@
       <c r="E174">
         <v>1117282037</v>
       </c>
+      <c r="F174" t="s">
+        <v>88</v>
+      </c>
+      <c r="G174" t="s">
+        <v>88</v>
+      </c>
       <c r="H174" t="s">
         <v>87</v>
       </c>
@@ -28058,10 +29618,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>223</v>
       </c>
+      <c r="B175" t="s">
+        <v>88</v>
+      </c>
       <c r="C175">
         <v>5</v>
       </c>
@@ -28071,6 +29634,12 @@
       <c r="E175">
         <v>778038683</v>
       </c>
+      <c r="F175" t="s">
+        <v>88</v>
+      </c>
+      <c r="G175" t="s">
+        <v>88</v>
+      </c>
       <c r="H175" t="s">
         <v>87</v>
       </c>
@@ -28258,10 +29827,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>224</v>
       </c>
+      <c r="B176" t="s">
+        <v>88</v>
+      </c>
       <c r="C176">
         <v>5</v>
       </c>
@@ -28271,6 +29843,12 @@
       <c r="E176">
         <v>577601849</v>
       </c>
+      <c r="F176" t="s">
+        <v>88</v>
+      </c>
+      <c r="G176" t="s">
+        <v>88</v>
+      </c>
       <c r="H176" t="s">
         <v>87</v>
       </c>
@@ -28455,21 +30033,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>225</v>
       </c>
+      <c r="B177" t="s">
+        <v>88</v>
+      </c>
       <c r="D177" t="s">
         <v>86</v>
       </c>
       <c r="E177">
         <v>1383129532</v>
       </c>
+      <c r="F177" t="s">
+        <v>88</v>
+      </c>
+      <c r="G177" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="178" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>226</v>
       </c>
+      <c r="B178" t="s">
+        <v>88</v>
+      </c>
       <c r="C178">
         <v>5</v>
       </c>
@@ -28479,6 +30069,12 @@
       <c r="E178">
         <v>1575723983</v>
       </c>
+      <c r="F178" t="s">
+        <v>88</v>
+      </c>
+      <c r="G178" t="s">
+        <v>88</v>
+      </c>
       <c r="H178" t="s">
         <v>87</v>
       </c>
@@ -28663,10 +30259,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>227</v>
       </c>
+      <c r="B179" t="s">
+        <v>88</v>
+      </c>
       <c r="C179">
         <v>5</v>
       </c>
@@ -28676,6 +30275,12 @@
       <c r="E179">
         <v>1828436508</v>
       </c>
+      <c r="F179" t="s">
+        <v>88</v>
+      </c>
+      <c r="G179" t="s">
+        <v>88</v>
+      </c>
       <c r="H179" t="s">
         <v>87</v>
       </c>
@@ -28866,10 +30471,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>228</v>
       </c>
+      <c r="B180" t="s">
+        <v>88</v>
+      </c>
       <c r="C180">
         <v>5</v>
       </c>
@@ -28879,6 +30487,12 @@
       <c r="E180">
         <v>753161635</v>
       </c>
+      <c r="F180" t="s">
+        <v>88</v>
+      </c>
+      <c r="G180" t="s">
+        <v>88</v>
+      </c>
       <c r="H180" t="s">
         <v>87</v>
       </c>
@@ -29069,10 +30683,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>229</v>
       </c>
+      <c r="B181" t="s">
+        <v>88</v>
+      </c>
       <c r="C181">
         <v>5</v>
       </c>
@@ -29082,6 +30699,12 @@
       <c r="E181">
         <v>411756206</v>
       </c>
+      <c r="F181" t="s">
+        <v>88</v>
+      </c>
+      <c r="G181" t="s">
+        <v>88</v>
+      </c>
       <c r="H181" t="s">
         <v>87</v>
       </c>
@@ -29275,10 +30898,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>230</v>
       </c>
+      <c r="B182" t="s">
+        <v>88</v>
+      </c>
       <c r="C182">
         <v>5</v>
       </c>
@@ -29288,6 +30914,12 @@
       <c r="E182">
         <v>1266444141</v>
       </c>
+      <c r="F182" t="s">
+        <v>88</v>
+      </c>
+      <c r="G182" t="s">
+        <v>88</v>
+      </c>
       <c r="H182" t="s">
         <v>87</v>
       </c>
@@ -29478,10 +31110,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>231</v>
       </c>
+      <c r="B183" t="s">
+        <v>88</v>
+      </c>
       <c r="C183">
         <v>5</v>
       </c>
@@ -29491,6 +31126,12 @@
       <c r="E183">
         <v>549593182</v>
       </c>
+      <c r="F183" t="s">
+        <v>88</v>
+      </c>
+      <c r="G183" t="s">
+        <v>88</v>
+      </c>
       <c r="H183" t="s">
         <v>87</v>
       </c>
@@ -29678,21 +31319,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>232</v>
       </c>
+      <c r="B184" t="s">
+        <v>88</v>
+      </c>
       <c r="D184" t="s">
         <v>86</v>
       </c>
       <c r="E184">
         <v>1626692765</v>
       </c>
+      <c r="F184" t="s">
+        <v>88</v>
+      </c>
+      <c r="G184" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="185" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>233</v>
       </c>
+      <c r="B185" t="s">
+        <v>88</v>
+      </c>
       <c r="C185">
         <v>5</v>
       </c>
@@ -29702,6 +31355,12 @@
       <c r="E185">
         <v>1989629183</v>
       </c>
+      <c r="F185" t="s">
+        <v>88</v>
+      </c>
+      <c r="G185" t="s">
+        <v>88</v>
+      </c>
       <c r="H185" t="s">
         <v>87</v>
       </c>
@@ -29892,21 +31551,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>234</v>
       </c>
+      <c r="B186" t="s">
+        <v>88</v>
+      </c>
       <c r="D186" t="s">
         <v>86</v>
       </c>
       <c r="E186">
         <v>710554814</v>
       </c>
+      <c r="F186" t="s">
+        <v>88</v>
+      </c>
+      <c r="G186" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="187" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>235</v>
       </c>
+      <c r="B187" t="s">
+        <v>88</v>
+      </c>
       <c r="C187">
         <v>1</v>
       </c>
@@ -29916,14 +31587,23 @@
       <c r="E187">
         <v>2119488802</v>
       </c>
+      <c r="F187" t="s">
+        <v>88</v>
+      </c>
+      <c r="G187" t="s">
+        <v>88</v>
+      </c>
       <c r="H187" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="188" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>236</v>
       </c>
+      <c r="B188" t="s">
+        <v>88</v>
+      </c>
       <c r="C188">
         <v>5</v>
       </c>
@@ -29933,6 +31613,12 @@
       <c r="E188">
         <v>2065588988</v>
       </c>
+      <c r="F188" t="s">
+        <v>88</v>
+      </c>
+      <c r="G188" t="s">
+        <v>88</v>
+      </c>
       <c r="H188" t="s">
         <v>87</v>
       </c>
@@ -30132,10 +31818,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>237</v>
       </c>
+      <c r="B189" t="s">
+        <v>88</v>
+      </c>
       <c r="C189">
         <v>5</v>
       </c>
@@ -30145,6 +31834,12 @@
       <c r="E189">
         <v>1271557249</v>
       </c>
+      <c r="F189" t="s">
+        <v>88</v>
+      </c>
+      <c r="G189" t="s">
+        <v>88</v>
+      </c>
       <c r="H189" t="s">
         <v>87</v>
       </c>
@@ -30332,10 +32027,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>238</v>
       </c>
+      <c r="B190" t="s">
+        <v>88</v>
+      </c>
       <c r="C190">
         <v>5</v>
       </c>
@@ -30345,6 +32043,12 @@
       <c r="E190">
         <v>1763410459</v>
       </c>
+      <c r="F190" t="s">
+        <v>88</v>
+      </c>
+      <c r="G190" t="s">
+        <v>88</v>
+      </c>
       <c r="H190" t="s">
         <v>87</v>
       </c>
@@ -30529,10 +32233,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>239</v>
       </c>
+      <c r="B191" t="s">
+        <v>88</v>
+      </c>
       <c r="C191">
         <v>1</v>
       </c>
@@ -30542,14 +32249,23 @@
       <c r="E191">
         <v>269426523</v>
       </c>
+      <c r="F191" t="s">
+        <v>88</v>
+      </c>
+      <c r="G191" t="s">
+        <v>88</v>
+      </c>
       <c r="H191" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="192" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>240</v>
       </c>
+      <c r="B192" t="s">
+        <v>88</v>
+      </c>
       <c r="C192">
         <v>5</v>
       </c>
@@ -30559,6 +32275,12 @@
       <c r="E192">
         <v>2040531200</v>
       </c>
+      <c r="F192" t="s">
+        <v>88</v>
+      </c>
+      <c r="G192" t="s">
+        <v>88</v>
+      </c>
       <c r="H192" t="s">
         <v>87</v>
       </c>
@@ -30737,10 +32459,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>241</v>
       </c>
+      <c r="B193" t="s">
+        <v>88</v>
+      </c>
       <c r="C193">
         <v>5</v>
       </c>
@@ -30750,6 +32475,12 @@
       <c r="E193">
         <v>1562367584</v>
       </c>
+      <c r="F193" t="s">
+        <v>88</v>
+      </c>
+      <c r="G193" t="s">
+        <v>88</v>
+      </c>
       <c r="H193" t="s">
         <v>87</v>
       </c>
@@ -30940,10 +32671,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>242</v>
       </c>
+      <c r="B194" t="s">
+        <v>88</v>
+      </c>
       <c r="C194">
         <v>2</v>
       </c>
@@ -30953,6 +32687,12 @@
       <c r="E194">
         <v>882754147</v>
       </c>
+      <c r="F194" t="s">
+        <v>88</v>
+      </c>
+      <c r="G194" t="s">
+        <v>88</v>
+      </c>
       <c r="H194" t="s">
         <v>87</v>
       </c>
@@ -31017,10 +32757,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>243</v>
       </c>
+      <c r="B195" t="s">
+        <v>88</v>
+      </c>
       <c r="C195">
         <v>4</v>
       </c>
@@ -31030,14 +32773,23 @@
       <c r="E195">
         <v>1091743924</v>
       </c>
+      <c r="F195" t="s">
+        <v>88</v>
+      </c>
+      <c r="G195" t="s">
+        <v>88</v>
+      </c>
       <c r="H195" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="196" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>244</v>
       </c>
+      <c r="B196" t="s">
+        <v>88</v>
+      </c>
       <c r="C196">
         <v>2</v>
       </c>
@@ -31047,6 +32799,12 @@
       <c r="E196">
         <v>1759511352</v>
       </c>
+      <c r="F196" t="s">
+        <v>88</v>
+      </c>
+      <c r="G196" t="s">
+        <v>88</v>
+      </c>
       <c r="H196" t="s">
         <v>87</v>
       </c>
@@ -31111,10 +32869,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>245</v>
       </c>
+      <c r="B197" t="s">
+        <v>88</v>
+      </c>
       <c r="C197">
         <v>5</v>
       </c>
@@ -31124,6 +32885,12 @@
       <c r="E197">
         <v>851037835</v>
       </c>
+      <c r="F197" t="s">
+        <v>88</v>
+      </c>
+      <c r="G197" t="s">
+        <v>88</v>
+      </c>
       <c r="H197" t="s">
         <v>87</v>
       </c>
@@ -31311,10 +33078,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>246</v>
       </c>
+      <c r="B198" t="s">
+        <v>88</v>
+      </c>
       <c r="C198">
         <v>5</v>
       </c>
@@ -31324,6 +33094,12 @@
       <c r="E198">
         <v>1543989114</v>
       </c>
+      <c r="F198" t="s">
+        <v>88</v>
+      </c>
+      <c r="G198" t="s">
+        <v>88</v>
+      </c>
       <c r="H198" t="s">
         <v>87</v>
       </c>
@@ -31517,10 +33293,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>247</v>
       </c>
+      <c r="B199" t="s">
+        <v>88</v>
+      </c>
       <c r="C199">
         <v>5</v>
       </c>
@@ -31530,6 +33309,12 @@
       <c r="E199">
         <v>328209162</v>
       </c>
+      <c r="F199" t="s">
+        <v>88</v>
+      </c>
+      <c r="G199" t="s">
+        <v>88</v>
+      </c>
       <c r="H199" t="s">
         <v>87</v>
       </c>
@@ -31711,10 +33496,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>248</v>
       </c>
+      <c r="B200" t="s">
+        <v>88</v>
+      </c>
       <c r="C200">
         <v>5</v>
       </c>
@@ -31724,6 +33512,12 @@
       <c r="E200">
         <v>1040525421</v>
       </c>
+      <c r="F200" t="s">
+        <v>88</v>
+      </c>
+      <c r="G200" t="s">
+        <v>88</v>
+      </c>
       <c r="H200" t="s">
         <v>87</v>
       </c>
@@ -31923,10 +33717,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>249</v>
       </c>
+      <c r="B201" t="s">
+        <v>88</v>
+      </c>
       <c r="C201">
         <v>-1</v>
       </c>
@@ -31936,11 +33733,20 @@
       <c r="E201">
         <v>1327183537</v>
       </c>
+      <c r="F201" t="s">
+        <v>88</v>
+      </c>
+      <c r="G201" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="202" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>250</v>
       </c>
+      <c r="B202" t="s">
+        <v>88</v>
+      </c>
       <c r="C202">
         <v>1</v>
       </c>
@@ -31950,14 +33756,23 @@
       <c r="E202">
         <v>1564869711</v>
       </c>
+      <c r="F202" t="s">
+        <v>88</v>
+      </c>
+      <c r="G202" t="s">
+        <v>88</v>
+      </c>
       <c r="H202" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="203" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>251</v>
       </c>
+      <c r="B203" t="s">
+        <v>88</v>
+      </c>
       <c r="C203">
         <v>5</v>
       </c>
@@ -31967,6 +33782,12 @@
       <c r="E203">
         <v>1291309674</v>
       </c>
+      <c r="F203" t="s">
+        <v>88</v>
+      </c>
+      <c r="G203" t="s">
+        <v>88</v>
+      </c>
       <c r="H203" t="s">
         <v>87</v>
       </c>
@@ -32154,10 +33975,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>252</v>
       </c>
+      <c r="B204" t="s">
+        <v>88</v>
+      </c>
       <c r="C204">
         <v>2</v>
       </c>
@@ -32167,6 +33991,12 @@
       <c r="E204">
         <v>1209110558</v>
       </c>
+      <c r="F204" t="s">
+        <v>88</v>
+      </c>
+      <c r="G204" t="s">
+        <v>88</v>
+      </c>
       <c r="H204" t="s">
         <v>87</v>
       </c>
@@ -32231,10 +34061,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>253</v>
       </c>
+      <c r="B205" t="s">
+        <v>88</v>
+      </c>
       <c r="C205">
         <v>5</v>
       </c>
@@ -32244,6 +34077,12 @@
       <c r="E205">
         <v>2019885677</v>
       </c>
+      <c r="F205" t="s">
+        <v>88</v>
+      </c>
+      <c r="G205" t="s">
+        <v>88</v>
+      </c>
       <c r="H205" t="s">
         <v>87</v>
       </c>
@@ -32428,10 +34267,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>254</v>
       </c>
+      <c r="B206" t="s">
+        <v>88</v>
+      </c>
       <c r="C206">
         <v>5</v>
       </c>
@@ -32441,6 +34283,12 @@
       <c r="E206">
         <v>510669898</v>
       </c>
+      <c r="F206" t="s">
+        <v>88</v>
+      </c>
+      <c r="G206" t="s">
+        <v>88</v>
+      </c>
       <c r="H206" t="s">
         <v>87</v>
       </c>
@@ -32631,10 +34479,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>255</v>
       </c>
+      <c r="B207" t="s">
+        <v>88</v>
+      </c>
       <c r="C207">
         <v>5</v>
       </c>
@@ -32644,6 +34495,12 @@
       <c r="E207">
         <v>1283663412</v>
       </c>
+      <c r="F207" t="s">
+        <v>88</v>
+      </c>
+      <c r="G207" t="s">
+        <v>88</v>
+      </c>
       <c r="H207" t="s">
         <v>87</v>
       </c>
@@ -32825,10 +34682,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>256</v>
       </c>
+      <c r="B208" t="s">
+        <v>88</v>
+      </c>
       <c r="C208">
         <v>5</v>
       </c>
@@ -32838,6 +34698,12 @@
       <c r="E208">
         <v>1889424979</v>
       </c>
+      <c r="F208" t="s">
+        <v>88</v>
+      </c>
+      <c r="G208" t="s">
+        <v>88</v>
+      </c>
       <c r="H208" t="s">
         <v>87</v>
       </c>
@@ -33025,10 +34891,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>257</v>
       </c>
+      <c r="B209" t="s">
+        <v>88</v>
+      </c>
       <c r="C209">
         <v>5</v>
       </c>
@@ -33038,6 +34907,12 @@
       <c r="E209">
         <v>473559255</v>
       </c>
+      <c r="F209" t="s">
+        <v>88</v>
+      </c>
+      <c r="G209" t="s">
+        <v>88</v>
+      </c>
       <c r="H209" t="s">
         <v>87</v>
       </c>
@@ -33222,10 +35097,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>258</v>
       </c>
+      <c r="B210" t="s">
+        <v>88</v>
+      </c>
       <c r="C210">
         <v>5</v>
       </c>
@@ -33235,6 +35113,12 @@
       <c r="E210">
         <v>200288391</v>
       </c>
+      <c r="F210" t="s">
+        <v>88</v>
+      </c>
+      <c r="G210" t="s">
+        <v>88</v>
+      </c>
       <c r="H210" t="s">
         <v>87</v>
       </c>
@@ -33422,21 +35306,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>259</v>
       </c>
+      <c r="B211" t="s">
+        <v>88</v>
+      </c>
       <c r="D211" t="s">
         <v>86</v>
       </c>
       <c r="E211">
         <v>1661270686</v>
       </c>
+      <c r="F211" t="s">
+        <v>88</v>
+      </c>
+      <c r="G211" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="212" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>260</v>
       </c>
+      <c r="B212" t="s">
+        <v>88</v>
+      </c>
       <c r="C212">
         <v>5</v>
       </c>
@@ -33446,6 +35342,12 @@
       <c r="E212">
         <v>1379607633</v>
       </c>
+      <c r="F212" t="s">
+        <v>88</v>
+      </c>
+      <c r="G212" t="s">
+        <v>88</v>
+      </c>
       <c r="H212" t="s">
         <v>87</v>
       </c>
@@ -33627,10 +35529,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>261</v>
       </c>
+      <c r="B213" t="s">
+        <v>88</v>
+      </c>
       <c r="C213">
         <v>1</v>
       </c>
@@ -33640,14 +35545,23 @@
       <c r="E213">
         <v>1194567632</v>
       </c>
+      <c r="F213" t="s">
+        <v>88</v>
+      </c>
+      <c r="G213" t="s">
+        <v>88</v>
+      </c>
       <c r="H213" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="214" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>262</v>
       </c>
+      <c r="B214" t="s">
+        <v>88</v>
+      </c>
       <c r="C214">
         <v>5</v>
       </c>
@@ -33657,6 +35571,12 @@
       <c r="E214">
         <v>1947578027</v>
       </c>
+      <c r="F214" t="s">
+        <v>88</v>
+      </c>
+      <c r="G214" t="s">
+        <v>88</v>
+      </c>
       <c r="H214" t="s">
         <v>87</v>
       </c>
@@ -33850,10 +35770,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>263</v>
       </c>
+      <c r="B215" t="s">
+        <v>88</v>
+      </c>
       <c r="C215">
         <v>5</v>
       </c>
@@ -33863,6 +35786,12 @@
       <c r="E215">
         <v>602440871</v>
       </c>
+      <c r="F215" t="s">
+        <v>88</v>
+      </c>
+      <c r="G215" t="s">
+        <v>88</v>
+      </c>
       <c r="H215" t="s">
         <v>87</v>
       </c>
@@ -34059,10 +35988,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>264</v>
       </c>
+      <c r="B216" t="s">
+        <v>88</v>
+      </c>
       <c r="C216">
         <v>5</v>
       </c>
@@ -34072,6 +36004,12 @@
       <c r="E216">
         <v>2042737897</v>
       </c>
+      <c r="F216" t="s">
+        <v>88</v>
+      </c>
+      <c r="G216" t="s">
+        <v>88</v>
+      </c>
       <c r="H216" t="s">
         <v>87</v>
       </c>
@@ -34262,10 +36200,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>265</v>
       </c>
+      <c r="B217" t="s">
+        <v>88</v>
+      </c>
       <c r="C217">
         <v>5</v>
       </c>
@@ -34275,6 +36216,12 @@
       <c r="E217">
         <v>1732366776</v>
       </c>
+      <c r="F217" t="s">
+        <v>88</v>
+      </c>
+      <c r="G217" t="s">
+        <v>88</v>
+      </c>
       <c r="H217" t="s">
         <v>87</v>
       </c>
@@ -34459,21 +36406,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>266</v>
       </c>
+      <c r="B218" t="s">
+        <v>88</v>
+      </c>
       <c r="D218" t="s">
         <v>86</v>
       </c>
       <c r="E218">
         <v>1018723198</v>
       </c>
+      <c r="F218" t="s">
+        <v>88</v>
+      </c>
+      <c r="G218" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="219" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>267</v>
       </c>
+      <c r="B219" t="s">
+        <v>88</v>
+      </c>
       <c r="C219">
         <v>5</v>
       </c>
@@ -34483,6 +36442,12 @@
       <c r="E219">
         <v>2059304802</v>
       </c>
+      <c r="F219" t="s">
+        <v>88</v>
+      </c>
+      <c r="G219" t="s">
+        <v>88</v>
+      </c>
       <c r="H219" t="s">
         <v>87</v>
       </c>
@@ -34667,10 +36632,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>268</v>
       </c>
+      <c r="B220" t="s">
+        <v>88</v>
+      </c>
       <c r="C220">
         <v>5</v>
       </c>
@@ -34680,6 +36648,12 @@
       <c r="E220">
         <v>2127378809</v>
       </c>
+      <c r="F220" t="s">
+        <v>88</v>
+      </c>
+      <c r="G220" t="s">
+        <v>88</v>
+      </c>
       <c r="H220" t="s">
         <v>87</v>
       </c>
@@ -34867,10 +36841,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>269</v>
       </c>
+      <c r="B221" t="s">
+        <v>88</v>
+      </c>
       <c r="C221">
         <v>5</v>
       </c>
@@ -34880,6 +36857,12 @@
       <c r="E221">
         <v>1491383866</v>
       </c>
+      <c r="F221" t="s">
+        <v>88</v>
+      </c>
+      <c r="G221" t="s">
+        <v>88</v>
+      </c>
       <c r="H221" t="s">
         <v>87</v>
       </c>
@@ -35061,10 +37044,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>270</v>
       </c>
+      <c r="B222" t="s">
+        <v>88</v>
+      </c>
       <c r="C222">
         <v>5</v>
       </c>
@@ -35074,6 +37060,12 @@
       <c r="E222">
         <v>1182230366</v>
       </c>
+      <c r="F222" t="s">
+        <v>88</v>
+      </c>
+      <c r="G222" t="s">
+        <v>88</v>
+      </c>
       <c r="H222" t="s">
         <v>87</v>
       </c>
@@ -35258,10 +37250,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>271</v>
       </c>
+      <c r="B223" t="s">
+        <v>88</v>
+      </c>
       <c r="C223">
         <v>1</v>
       </c>
@@ -35271,14 +37266,23 @@
       <c r="E223">
         <v>359260098</v>
       </c>
+      <c r="F223" t="s">
+        <v>88</v>
+      </c>
+      <c r="G223" t="s">
+        <v>88</v>
+      </c>
       <c r="H223" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="224" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>272</v>
       </c>
+      <c r="B224" t="s">
+        <v>88</v>
+      </c>
       <c r="C224">
         <v>5</v>
       </c>
@@ -35288,6 +37292,12 @@
       <c r="E224">
         <v>230359425</v>
       </c>
+      <c r="F224" t="s">
+        <v>88</v>
+      </c>
+      <c r="G224" t="s">
+        <v>88</v>
+      </c>
       <c r="H224" t="s">
         <v>87</v>
       </c>
@@ -35478,10 +37488,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>273</v>
       </c>
+      <c r="B225" t="s">
+        <v>88</v>
+      </c>
       <c r="C225">
         <v>5</v>
       </c>
@@ -35491,6 +37504,12 @@
       <c r="E225">
         <v>1188501021</v>
       </c>
+      <c r="F225" t="s">
+        <v>88</v>
+      </c>
+      <c r="G225" t="s">
+        <v>88</v>
+      </c>
       <c r="H225" t="s">
         <v>87</v>
       </c>
@@ -35675,10 +37694,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>274</v>
       </c>
+      <c r="B226" t="s">
+        <v>88</v>
+      </c>
       <c r="C226">
         <v>5</v>
       </c>
@@ -35688,6 +37710,12 @@
       <c r="E226">
         <v>1259941417</v>
       </c>
+      <c r="F226" t="s">
+        <v>88</v>
+      </c>
+      <c r="G226" t="s">
+        <v>88</v>
+      </c>
       <c r="H226" t="s">
         <v>87</v>
       </c>
@@ -35875,10 +37903,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>275</v>
       </c>
+      <c r="B227" t="s">
+        <v>88</v>
+      </c>
       <c r="C227">
         <v>5</v>
       </c>
@@ -35888,6 +37919,12 @@
       <c r="E227">
         <v>555743107</v>
       </c>
+      <c r="F227" t="s">
+        <v>88</v>
+      </c>
+      <c r="G227" t="s">
+        <v>88</v>
+      </c>
       <c r="H227" t="s">
         <v>87</v>
       </c>
@@ -36075,10 +38112,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>276</v>
       </c>
+      <c r="B228" t="s">
+        <v>88</v>
+      </c>
       <c r="C228">
         <v>5</v>
       </c>
@@ -36088,6 +38128,12 @@
       <c r="E228">
         <v>1441547646</v>
       </c>
+      <c r="F228" t="s">
+        <v>88</v>
+      </c>
+      <c r="G228" t="s">
+        <v>88</v>
+      </c>
       <c r="H228" t="s">
         <v>87</v>
       </c>
@@ -36269,10 +38315,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>277</v>
       </c>
+      <c r="B229" t="s">
+        <v>88</v>
+      </c>
       <c r="C229">
         <v>5</v>
       </c>
@@ -36282,6 +38331,12 @@
       <c r="E229">
         <v>1368606856</v>
       </c>
+      <c r="F229" t="s">
+        <v>88</v>
+      </c>
+      <c r="G229" t="s">
+        <v>88</v>
+      </c>
       <c r="H229" t="s">
         <v>87</v>
       </c>
@@ -36463,10 +38518,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>278</v>
       </c>
+      <c r="B230" t="s">
+        <v>88</v>
+      </c>
       <c r="C230">
         <v>5</v>
       </c>
@@ -36476,6 +38534,12 @@
       <c r="E230">
         <v>1239911667</v>
       </c>
+      <c r="F230" t="s">
+        <v>88</v>
+      </c>
+      <c r="G230" t="s">
+        <v>88</v>
+      </c>
       <c r="H230" t="s">
         <v>87</v>
       </c>
@@ -36663,10 +38727,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>279</v>
       </c>
+      <c r="B231" t="s">
+        <v>88</v>
+      </c>
       <c r="C231">
         <v>5</v>
       </c>
@@ -36676,6 +38743,12 @@
       <c r="E231">
         <v>336986003</v>
       </c>
+      <c r="F231" t="s">
+        <v>88</v>
+      </c>
+      <c r="G231" t="s">
+        <v>88</v>
+      </c>
       <c r="H231" t="s">
         <v>87</v>
       </c>
@@ -36860,10 +38933,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>280</v>
       </c>
+      <c r="B232" t="s">
+        <v>88</v>
+      </c>
       <c r="C232">
         <v>5</v>
       </c>
@@ -36873,6 +38949,12 @@
       <c r="E232">
         <v>783836287</v>
       </c>
+      <c r="F232" t="s">
+        <v>88</v>
+      </c>
+      <c r="G232" t="s">
+        <v>88</v>
+      </c>
       <c r="H232" t="s">
         <v>87</v>
       </c>
@@ -37060,10 +39142,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>281</v>
       </c>
+      <c r="B233" t="s">
+        <v>88</v>
+      </c>
       <c r="C233">
         <v>5</v>
       </c>
@@ -37073,6 +39158,12 @@
       <c r="E233">
         <v>1890196790</v>
       </c>
+      <c r="F233" t="s">
+        <v>88</v>
+      </c>
+      <c r="G233" t="s">
+        <v>88</v>
+      </c>
       <c r="H233" t="s">
         <v>87</v>
       </c>
@@ -37260,10 +39351,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>282</v>
       </c>
+      <c r="B234" t="s">
+        <v>88</v>
+      </c>
       <c r="C234">
         <v>5</v>
       </c>
@@ -37273,6 +39367,12 @@
       <c r="E234">
         <v>688607401</v>
       </c>
+      <c r="F234" t="s">
+        <v>88</v>
+      </c>
+      <c r="G234" t="s">
+        <v>88</v>
+      </c>
       <c r="H234" t="s">
         <v>87</v>
       </c>
@@ -37460,10 +39560,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>283</v>
       </c>
+      <c r="B235" t="s">
+        <v>88</v>
+      </c>
       <c r="C235">
         <v>5</v>
       </c>
@@ -37473,6 +39576,12 @@
       <c r="E235">
         <v>1001994414</v>
       </c>
+      <c r="F235" t="s">
+        <v>88</v>
+      </c>
+      <c r="G235" t="s">
+        <v>88</v>
+      </c>
       <c r="H235" t="s">
         <v>87</v>
       </c>
@@ -37657,10 +39766,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>284</v>
       </c>
+      <c r="B236" t="s">
+        <v>88</v>
+      </c>
       <c r="C236">
         <v>5</v>
       </c>
@@ -37670,6 +39782,12 @@
       <c r="E236">
         <v>100105369</v>
       </c>
+      <c r="F236" t="s">
+        <v>88</v>
+      </c>
+      <c r="G236" t="s">
+        <v>88</v>
+      </c>
       <c r="H236" t="s">
         <v>87</v>
       </c>
@@ -37854,10 +39972,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>285</v>
       </c>
+      <c r="B237" t="s">
+        <v>88</v>
+      </c>
       <c r="C237">
         <v>5</v>
       </c>
@@ -37867,6 +39988,12 @@
       <c r="E237">
         <v>1862804143</v>
       </c>
+      <c r="F237" t="s">
+        <v>88</v>
+      </c>
+      <c r="G237" t="s">
+        <v>88</v>
+      </c>
       <c r="H237" t="s">
         <v>87</v>
       </c>
@@ -38051,10 +40178,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>286</v>
       </c>
+      <c r="B238" t="s">
+        <v>88</v>
+      </c>
       <c r="C238">
         <v>5</v>
       </c>
@@ -38064,6 +40194,12 @@
       <c r="E238">
         <v>1611398682</v>
       </c>
+      <c r="F238" t="s">
+        <v>88</v>
+      </c>
+      <c r="G238" t="s">
+        <v>88</v>
+      </c>
       <c r="H238" t="s">
         <v>87</v>
       </c>
@@ -38248,10 +40384,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>287</v>
       </c>
+      <c r="B239" t="s">
+        <v>88</v>
+      </c>
       <c r="C239">
         <v>0</v>
       </c>
@@ -38261,14 +40400,23 @@
       <c r="E239">
         <v>610369076</v>
       </c>
+      <c r="F239" t="s">
+        <v>88</v>
+      </c>
+      <c r="G239" t="s">
+        <v>88</v>
+      </c>
       <c r="H239" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="240" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>288</v>
       </c>
+      <c r="B240" t="s">
+        <v>88</v>
+      </c>
       <c r="C240">
         <v>1</v>
       </c>
@@ -38278,47 +40426,83 @@
       <c r="E240">
         <v>1074615222</v>
       </c>
+      <c r="F240" t="s">
+        <v>88</v>
+      </c>
+      <c r="G240" t="s">
+        <v>88</v>
+      </c>
       <c r="H240" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="241" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>289</v>
       </c>
+      <c r="B241" t="s">
+        <v>88</v>
+      </c>
       <c r="D241" t="s">
         <v>86</v>
       </c>
       <c r="E241">
         <v>835508352</v>
       </c>
+      <c r="F241" t="s">
+        <v>88</v>
+      </c>
+      <c r="G241" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="242" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>290</v>
       </c>
+      <c r="B242" t="s">
+        <v>88</v>
+      </c>
       <c r="D242" t="s">
         <v>86</v>
       </c>
       <c r="E242">
         <v>199460292</v>
       </c>
+      <c r="F242" t="s">
+        <v>88</v>
+      </c>
+      <c r="G242" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="243" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>291</v>
       </c>
+      <c r="B243" t="s">
+        <v>88</v>
+      </c>
       <c r="D243" t="s">
         <v>86</v>
       </c>
       <c r="E243">
         <v>1167053105</v>
       </c>
+      <c r="F243" t="s">
+        <v>88</v>
+      </c>
+      <c r="G243" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="244" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>292</v>
       </c>
+      <c r="B244" t="s">
+        <v>88</v>
+      </c>
       <c r="C244">
         <v>4</v>
       </c>
@@ -38328,14 +40512,23 @@
       <c r="E244">
         <v>1513116441</v>
       </c>
+      <c r="F244" t="s">
+        <v>88</v>
+      </c>
+      <c r="G244" t="s">
+        <v>88</v>
+      </c>
       <c r="H244" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="245" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>293</v>
       </c>
+      <c r="B245" t="s">
+        <v>88</v>
+      </c>
       <c r="C245">
         <v>5</v>
       </c>
@@ -38345,6 +40538,12 @@
       <c r="E245">
         <v>922692016</v>
       </c>
+      <c r="F245" t="s">
+        <v>88</v>
+      </c>
+      <c r="G245" t="s">
+        <v>88</v>
+      </c>
       <c r="H245" t="s">
         <v>87</v>
       </c>
@@ -38529,10 +40728,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>294</v>
       </c>
+      <c r="B246" t="s">
+        <v>88</v>
+      </c>
       <c r="C246">
         <v>5</v>
       </c>
@@ -38542,6 +40744,12 @@
       <c r="E246">
         <v>1337626609</v>
       </c>
+      <c r="F246" t="s">
+        <v>88</v>
+      </c>
+      <c r="G246" t="s">
+        <v>88</v>
+      </c>
       <c r="H246" t="s">
         <v>87</v>
       </c>
@@ -38726,10 +40934,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>295</v>
       </c>
+      <c r="B247" t="s">
+        <v>88</v>
+      </c>
       <c r="C247">
         <v>5</v>
       </c>
@@ -38739,6 +40950,12 @@
       <c r="E247">
         <v>1794777378</v>
       </c>
+      <c r="F247" t="s">
+        <v>88</v>
+      </c>
+      <c r="G247" t="s">
+        <v>88</v>
+      </c>
       <c r="H247" t="s">
         <v>87</v>
       </c>
@@ -38938,10 +41155,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>296</v>
       </c>
+      <c r="B248" t="s">
+        <v>88</v>
+      </c>
       <c r="C248">
         <v>5</v>
       </c>
@@ -38951,6 +41171,12 @@
       <c r="E248">
         <v>1827197830</v>
       </c>
+      <c r="F248" t="s">
+        <v>88</v>
+      </c>
+      <c r="G248" t="s">
+        <v>88</v>
+      </c>
       <c r="H248" t="s">
         <v>87</v>
       </c>
@@ -39138,10 +41364,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>297</v>
       </c>
+      <c r="B249" t="s">
+        <v>88</v>
+      </c>
       <c r="C249">
         <v>5</v>
       </c>
@@ -39151,6 +41380,12 @@
       <c r="E249">
         <v>1074719431</v>
       </c>
+      <c r="F249" t="s">
+        <v>88</v>
+      </c>
+      <c r="G249" t="s">
+        <v>88</v>
+      </c>
       <c r="H249" t="s">
         <v>87</v>
       </c>
@@ -39341,10 +41576,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>298</v>
       </c>
+      <c r="B250" t="s">
+        <v>88</v>
+      </c>
       <c r="C250">
         <v>5</v>
       </c>
@@ -39354,6 +41592,12 @@
       <c r="E250">
         <v>846270579</v>
       </c>
+      <c r="F250" t="s">
+        <v>88</v>
+      </c>
+      <c r="G250" t="s">
+        <v>88</v>
+      </c>
       <c r="H250" t="s">
         <v>87</v>
       </c>
@@ -39538,10 +41782,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>299</v>
       </c>
+      <c r="B251" t="s">
+        <v>88</v>
+      </c>
       <c r="C251">
         <v>5</v>
       </c>
@@ -39551,6 +41798,12 @@
       <c r="E251">
         <v>2032813351</v>
       </c>
+      <c r="F251" t="s">
+        <v>88</v>
+      </c>
+      <c r="G251" t="s">
+        <v>88</v>
+      </c>
       <c r="H251" t="s">
         <v>87</v>
       </c>
@@ -39735,10 +41988,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>300</v>
       </c>
+      <c r="B252" t="s">
+        <v>88</v>
+      </c>
       <c r="C252">
         <v>5</v>
       </c>
@@ -39748,6 +42004,12 @@
       <c r="E252">
         <v>1509556154</v>
       </c>
+      <c r="F252" t="s">
+        <v>88</v>
+      </c>
+      <c r="G252" t="s">
+        <v>88</v>
+      </c>
       <c r="H252" t="s">
         <v>87</v>
       </c>
@@ -39935,10 +42197,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>301</v>
       </c>
+      <c r="B253" t="s">
+        <v>88</v>
+      </c>
       <c r="C253">
         <v>5</v>
       </c>
@@ -39948,6 +42213,12 @@
       <c r="E253">
         <v>367694362</v>
       </c>
+      <c r="F253" t="s">
+        <v>88</v>
+      </c>
+      <c r="G253" t="s">
+        <v>88</v>
+      </c>
       <c r="H253" t="s">
         <v>87</v>
       </c>
@@ -40132,10 +42403,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>302</v>
       </c>
+      <c r="B254" t="s">
+        <v>88</v>
+      </c>
       <c r="C254">
         <v>5</v>
       </c>
@@ -40145,6 +42419,12 @@
       <c r="E254">
         <v>1041387842</v>
       </c>
+      <c r="F254" t="s">
+        <v>88</v>
+      </c>
+      <c r="G254" t="s">
+        <v>88</v>
+      </c>
       <c r="H254" t="s">
         <v>87</v>
       </c>
@@ -40332,10 +42612,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>303</v>
       </c>
+      <c r="B255" t="s">
+        <v>88</v>
+      </c>
       <c r="C255">
         <v>5</v>
       </c>
@@ -40345,6 +42628,12 @@
       <c r="E255">
         <v>1527897805</v>
       </c>
+      <c r="F255" t="s">
+        <v>88</v>
+      </c>
+      <c r="G255" t="s">
+        <v>88</v>
+      </c>
       <c r="H255" t="s">
         <v>87</v>
       </c>
@@ -40535,10 +42824,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>304</v>
       </c>
+      <c r="B256" t="s">
+        <v>88</v>
+      </c>
       <c r="C256">
         <v>5</v>
       </c>
@@ -40548,6 +42840,12 @@
       <c r="E256">
         <v>1401864802</v>
       </c>
+      <c r="F256" t="s">
+        <v>88</v>
+      </c>
+      <c r="G256" t="s">
+        <v>88</v>
+      </c>
       <c r="H256" t="s">
         <v>87</v>
       </c>
@@ -40729,10 +43027,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>305</v>
       </c>
+      <c r="B257" t="s">
+        <v>88</v>
+      </c>
       <c r="C257">
         <v>5</v>
       </c>
@@ -40742,6 +43043,12 @@
       <c r="E257">
         <v>1057491330</v>
       </c>
+      <c r="F257" t="s">
+        <v>88</v>
+      </c>
+      <c r="G257" t="s">
+        <v>88</v>
+      </c>
       <c r="H257" t="s">
         <v>87</v>
       </c>
@@ -40929,10 +43236,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>306</v>
       </c>
+      <c r="B258" t="s">
+        <v>88</v>
+      </c>
       <c r="C258">
         <v>5</v>
       </c>
@@ -40942,6 +43252,12 @@
       <c r="E258">
         <v>206089492</v>
       </c>
+      <c r="F258" t="s">
+        <v>88</v>
+      </c>
+      <c r="G258" t="s">
+        <v>88</v>
+      </c>
       <c r="H258" t="s">
         <v>87</v>
       </c>
@@ -41129,10 +43445,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>307</v>
       </c>
+      <c r="B259" t="s">
+        <v>88</v>
+      </c>
       <c r="C259">
         <v>5</v>
       </c>
@@ -41142,6 +43461,12 @@
       <c r="E259">
         <v>606599789</v>
       </c>
+      <c r="F259" t="s">
+        <v>88</v>
+      </c>
+      <c r="G259" t="s">
+        <v>88</v>
+      </c>
       <c r="H259" t="s">
         <v>87</v>
       </c>
@@ -41326,10 +43651,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>308</v>
       </c>
+      <c r="B260" t="s">
+        <v>88</v>
+      </c>
       <c r="C260">
         <v>5</v>
       </c>
@@ -41339,6 +43667,12 @@
       <c r="E260">
         <v>1397158371</v>
       </c>
+      <c r="F260" t="s">
+        <v>88</v>
+      </c>
+      <c r="G260" t="s">
+        <v>88</v>
+      </c>
       <c r="H260" t="s">
         <v>87</v>
       </c>
@@ -41526,10 +43860,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>309</v>
       </c>
+      <c r="B261" t="s">
+        <v>88</v>
+      </c>
       <c r="C261">
         <v>5</v>
       </c>
@@ -41539,6 +43876,12 @@
       <c r="E261">
         <v>1236399777</v>
       </c>
+      <c r="F261" t="s">
+        <v>88</v>
+      </c>
+      <c r="G261" t="s">
+        <v>88</v>
+      </c>
       <c r="H261" t="s">
         <v>87</v>
       </c>
@@ -41726,10 +44069,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>310</v>
       </c>
+      <c r="B262" t="s">
+        <v>88</v>
+      </c>
       <c r="C262">
         <v>5</v>
       </c>
@@ -41739,6 +44085,12 @@
       <c r="E262">
         <v>658834975</v>
       </c>
+      <c r="F262" t="s">
+        <v>88</v>
+      </c>
+      <c r="G262" t="s">
+        <v>88</v>
+      </c>
       <c r="H262" t="s">
         <v>87</v>
       </c>
@@ -41917,10 +44269,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>311</v>
       </c>
+      <c r="B263" t="s">
+        <v>88</v>
+      </c>
       <c r="C263">
         <v>5</v>
       </c>
@@ -41930,6 +44285,12 @@
       <c r="E263">
         <v>688315445</v>
       </c>
+      <c r="F263" t="s">
+        <v>88</v>
+      </c>
+      <c r="G263" t="s">
+        <v>88</v>
+      </c>
       <c r="H263" t="s">
         <v>87</v>
       </c>
@@ -42117,10 +44478,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>312</v>
       </c>
+      <c r="B264" t="s">
+        <v>88</v>
+      </c>
       <c r="C264">
         <v>1</v>
       </c>
@@ -42130,14 +44494,23 @@
       <c r="E264">
         <v>1827416282</v>
       </c>
+      <c r="F264" t="s">
+        <v>88</v>
+      </c>
+      <c r="G264" t="s">
+        <v>88</v>
+      </c>
       <c r="H264" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="265" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>313</v>
       </c>
+      <c r="B265" t="s">
+        <v>88</v>
+      </c>
       <c r="C265">
         <v>5</v>
       </c>
@@ -42147,6 +44520,12 @@
       <c r="E265">
         <v>765598287</v>
       </c>
+      <c r="F265" t="s">
+        <v>88</v>
+      </c>
+      <c r="G265" t="s">
+        <v>88</v>
+      </c>
       <c r="H265" t="s">
         <v>87</v>
       </c>
@@ -42334,10 +44713,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>314</v>
       </c>
+      <c r="B266" t="s">
+        <v>88</v>
+      </c>
       <c r="C266">
         <v>5</v>
       </c>
@@ -42347,6 +44729,12 @@
       <c r="E266">
         <v>725908578</v>
       </c>
+      <c r="F266" t="s">
+        <v>88</v>
+      </c>
+      <c r="G266" t="s">
+        <v>88</v>
+      </c>
       <c r="H266" t="s">
         <v>87</v>
       </c>
@@ -42528,10 +44916,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>315</v>
       </c>
+      <c r="B267" t="s">
+        <v>88</v>
+      </c>
       <c r="C267">
         <v>1</v>
       </c>
@@ -42541,14 +44932,23 @@
       <c r="E267">
         <v>1458039462</v>
       </c>
+      <c r="F267" t="s">
+        <v>88</v>
+      </c>
+      <c r="G267" t="s">
+        <v>88</v>
+      </c>
       <c r="H267" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="268" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>316</v>
       </c>
+      <c r="B268" t="s">
+        <v>88</v>
+      </c>
       <c r="C268">
         <v>5</v>
       </c>
@@ -42558,6 +44958,12 @@
       <c r="E268">
         <v>2032435454</v>
       </c>
+      <c r="F268" t="s">
+        <v>88</v>
+      </c>
+      <c r="G268" t="s">
+        <v>88</v>
+      </c>
       <c r="H268" t="s">
         <v>87</v>
       </c>
@@ -42754,21 +45160,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>317</v>
       </c>
+      <c r="B269" t="s">
+        <v>88</v>
+      </c>
       <c r="D269" t="s">
         <v>86</v>
       </c>
       <c r="E269">
         <v>1452695556</v>
       </c>
+      <c r="F269" t="s">
+        <v>88</v>
+      </c>
+      <c r="G269" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="270" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>318</v>
       </c>
+      <c r="B270" t="s">
+        <v>88</v>
+      </c>
       <c r="C270">
         <v>5</v>
       </c>
@@ -42778,6 +45196,12 @@
       <c r="E270">
         <v>469587115</v>
       </c>
+      <c r="F270" t="s">
+        <v>88</v>
+      </c>
+      <c r="G270" t="s">
+        <v>88</v>
+      </c>
       <c r="H270" t="s">
         <v>87</v>
       </c>
@@ -42962,10 +45386,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>319</v>
       </c>
+      <c r="B271" t="s">
+        <v>88</v>
+      </c>
       <c r="C271">
         <v>5</v>
       </c>
@@ -42975,6 +45402,12 @@
       <c r="E271">
         <v>1373825281</v>
       </c>
+      <c r="F271" t="s">
+        <v>88</v>
+      </c>
+      <c r="G271" t="s">
+        <v>88</v>
+      </c>
       <c r="H271" t="s">
         <v>87</v>
       </c>
@@ -43159,10 +45592,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>320</v>
       </c>
+      <c r="B272" t="s">
+        <v>88</v>
+      </c>
       <c r="C272">
         <v>5</v>
       </c>
@@ -43172,6 +45608,12 @@
       <c r="E272">
         <v>517981245</v>
       </c>
+      <c r="F272" t="s">
+        <v>88</v>
+      </c>
+      <c r="G272" t="s">
+        <v>88</v>
+      </c>
       <c r="H272" t="s">
         <v>87</v>
       </c>
@@ -43356,10 +45798,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>321</v>
       </c>
+      <c r="B273" t="s">
+        <v>88</v>
+      </c>
       <c r="C273">
         <v>5</v>
       </c>
@@ -43369,6 +45814,12 @@
       <c r="E273">
         <v>1521807543</v>
       </c>
+      <c r="F273" t="s">
+        <v>88</v>
+      </c>
+      <c r="G273" t="s">
+        <v>88</v>
+      </c>
       <c r="H273" t="s">
         <v>87</v>
       </c>
@@ -43556,10 +46007,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>322</v>
       </c>
+      <c r="B274" t="s">
+        <v>88</v>
+      </c>
       <c r="C274">
         <v>5</v>
       </c>
@@ -43569,6 +46023,12 @@
       <c r="E274">
         <v>1806292592</v>
       </c>
+      <c r="F274" t="s">
+        <v>88</v>
+      </c>
+      <c r="G274" t="s">
+        <v>88</v>
+      </c>
       <c r="H274" t="s">
         <v>87</v>
       </c>
@@ -43762,10 +46222,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>323</v>
       </c>
+      <c r="B275" t="s">
+        <v>88</v>
+      </c>
       <c r="C275">
         <v>5</v>
       </c>
@@ -43775,6 +46238,12 @@
       <c r="E275">
         <v>484576614</v>
       </c>
+      <c r="F275" t="s">
+        <v>88</v>
+      </c>
+      <c r="G275" t="s">
+        <v>88</v>
+      </c>
       <c r="H275" t="s">
         <v>87</v>
       </c>
@@ -43953,10 +46422,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>324</v>
       </c>
+      <c r="B276" t="s">
+        <v>88</v>
+      </c>
       <c r="C276">
         <v>1</v>
       </c>
@@ -43966,36 +46438,63 @@
       <c r="E276">
         <v>1499971885</v>
       </c>
+      <c r="F276" t="s">
+        <v>88</v>
+      </c>
+      <c r="G276" t="s">
+        <v>88</v>
+      </c>
       <c r="H276" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="277" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>325</v>
       </c>
+      <c r="B277" t="s">
+        <v>88</v>
+      </c>
       <c r="D277" t="s">
         <v>86</v>
       </c>
       <c r="E277">
         <v>1746444918</v>
       </c>
+      <c r="F277" t="s">
+        <v>88</v>
+      </c>
+      <c r="G277" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="278" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>326</v>
       </c>
+      <c r="B278" t="s">
+        <v>88</v>
+      </c>
       <c r="D278" t="s">
         <v>86</v>
       </c>
       <c r="E278">
         <v>1137473239</v>
       </c>
+      <c r="F278" t="s">
+        <v>88</v>
+      </c>
+      <c r="G278" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="279" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>327</v>
       </c>
+      <c r="B279" t="s">
+        <v>88</v>
+      </c>
       <c r="C279">
         <v>1</v>
       </c>
@@ -44005,14 +46504,23 @@
       <c r="E279">
         <v>1770868369</v>
       </c>
+      <c r="F279" t="s">
+        <v>88</v>
+      </c>
+      <c r="G279" t="s">
+        <v>88</v>
+      </c>
       <c r="H279" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="280" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>328</v>
       </c>
+      <c r="B280" t="s">
+        <v>88</v>
+      </c>
       <c r="C280">
         <v>5</v>
       </c>
@@ -44022,6 +46530,12 @@
       <c r="E280">
         <v>1852326714</v>
       </c>
+      <c r="F280" t="s">
+        <v>88</v>
+      </c>
+      <c r="G280" t="s">
+        <v>88</v>
+      </c>
       <c r="H280" t="s">
         <v>87</v>
       </c>
@@ -44209,10 +46723,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>329</v>
       </c>
+      <c r="B281" t="s">
+        <v>88</v>
+      </c>
       <c r="C281">
         <v>5</v>
       </c>
@@ -44222,6 +46739,12 @@
       <c r="E281">
         <v>1374312011</v>
       </c>
+      <c r="F281" t="s">
+        <v>88</v>
+      </c>
+      <c r="G281" t="s">
+        <v>88</v>
+      </c>
       <c r="H281" t="s">
         <v>87</v>
       </c>
@@ -44397,10 +46920,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>330</v>
       </c>
+      <c r="B282" t="s">
+        <v>88</v>
+      </c>
       <c r="C282">
         <v>1</v>
       </c>
@@ -44410,14 +46936,23 @@
       <c r="E282">
         <v>859200684</v>
       </c>
+      <c r="F282" t="s">
+        <v>88</v>
+      </c>
+      <c r="G282" t="s">
+        <v>88</v>
+      </c>
       <c r="H282" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="283" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>331</v>
       </c>
+      <c r="B283" t="s">
+        <v>88</v>
+      </c>
       <c r="C283">
         <v>5</v>
       </c>
@@ -44427,6 +46962,12 @@
       <c r="E283">
         <v>1273838528</v>
       </c>
+      <c r="F283" t="s">
+        <v>88</v>
+      </c>
+      <c r="G283" t="s">
+        <v>88</v>
+      </c>
       <c r="H283" t="s">
         <v>87</v>
       </c>
@@ -44608,10 +47149,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>332</v>
       </c>
+      <c r="B284" t="s">
+        <v>88</v>
+      </c>
       <c r="C284">
         <v>5</v>
       </c>
@@ -44621,6 +47165,12 @@
       <c r="E284">
         <v>221199856</v>
       </c>
+      <c r="F284" t="s">
+        <v>88</v>
+      </c>
+      <c r="G284" t="s">
+        <v>88</v>
+      </c>
       <c r="H284" t="s">
         <v>87</v>
       </c>
@@ -44796,10 +47346,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>333</v>
       </c>
+      <c r="B285" t="s">
+        <v>88</v>
+      </c>
       <c r="C285">
         <v>5</v>
       </c>
@@ -44809,6 +47362,12 @@
       <c r="E285">
         <v>88740015</v>
       </c>
+      <c r="F285" t="s">
+        <v>88</v>
+      </c>
+      <c r="G285" t="s">
+        <v>88</v>
+      </c>
       <c r="H285" t="s">
         <v>87</v>
       </c>
@@ -44993,21 +47552,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>334</v>
       </c>
+      <c r="B286" t="s">
+        <v>88</v>
+      </c>
       <c r="D286" t="s">
         <v>86</v>
       </c>
       <c r="E286">
         <v>1578330572</v>
       </c>
+      <c r="F286" t="s">
+        <v>88</v>
+      </c>
+      <c r="G286" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="287" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>335</v>
       </c>
+      <c r="B287" t="s">
+        <v>88</v>
+      </c>
       <c r="C287">
         <v>5</v>
       </c>
@@ -45017,6 +47588,12 @@
       <c r="E287">
         <v>1648094935</v>
       </c>
+      <c r="F287" t="s">
+        <v>88</v>
+      </c>
+      <c r="G287" t="s">
+        <v>88</v>
+      </c>
       <c r="H287" t="s">
         <v>87</v>
       </c>
@@ -45204,10 +47781,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>336</v>
       </c>
+      <c r="B288" t="s">
+        <v>88</v>
+      </c>
       <c r="C288">
         <v>1</v>
       </c>
@@ -45217,14 +47797,23 @@
       <c r="E288">
         <v>1516686587</v>
       </c>
+      <c r="F288" t="s">
+        <v>88</v>
+      </c>
+      <c r="G288" t="s">
+        <v>88</v>
+      </c>
       <c r="H288" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="289" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>337</v>
       </c>
+      <c r="B289" t="s">
+        <v>88</v>
+      </c>
       <c r="C289">
         <v>2</v>
       </c>
@@ -45234,6 +47823,12 @@
       <c r="E289">
         <v>919427108</v>
       </c>
+      <c r="F289" t="s">
+        <v>88</v>
+      </c>
+      <c r="G289" t="s">
+        <v>88</v>
+      </c>
       <c r="H289" t="s">
         <v>87</v>
       </c>
@@ -45295,10 +47890,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>338</v>
       </c>
+      <c r="B290" t="s">
+        <v>88</v>
+      </c>
       <c r="C290">
         <v>5</v>
       </c>
@@ -45308,6 +47906,12 @@
       <c r="E290">
         <v>329905652</v>
       </c>
+      <c r="F290" t="s">
+        <v>88</v>
+      </c>
+      <c r="G290" t="s">
+        <v>88</v>
+      </c>
       <c r="H290" t="s">
         <v>87</v>
       </c>
@@ -45489,10 +48093,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>339</v>
       </c>
+      <c r="B291" t="s">
+        <v>88</v>
+      </c>
       <c r="C291">
         <v>5</v>
       </c>
@@ -45502,6 +48109,12 @@
       <c r="E291">
         <v>1683712730</v>
       </c>
+      <c r="F291" t="s">
+        <v>88</v>
+      </c>
+      <c r="G291" t="s">
+        <v>88</v>
+      </c>
       <c r="H291" t="s">
         <v>87</v>
       </c>
@@ -45686,10 +48299,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>340</v>
       </c>
+      <c r="B292" t="s">
+        <v>88</v>
+      </c>
       <c r="C292">
         <v>5</v>
       </c>
@@ -45699,6 +48315,12 @@
       <c r="E292">
         <v>1053950177</v>
       </c>
+      <c r="F292" t="s">
+        <v>88</v>
+      </c>
+      <c r="G292" t="s">
+        <v>88</v>
+      </c>
       <c r="H292" t="s">
         <v>87</v>
       </c>
@@ -45883,10 +48505,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>341</v>
       </c>
+      <c r="B293" t="s">
+        <v>88</v>
+      </c>
       <c r="C293">
         <v>5</v>
       </c>
@@ -45896,6 +48521,12 @@
       <c r="E293">
         <v>2140910026</v>
       </c>
+      <c r="F293" t="s">
+        <v>88</v>
+      </c>
+      <c r="G293" t="s">
+        <v>88</v>
+      </c>
       <c r="H293" t="s">
         <v>87</v>
       </c>
@@ -46083,10 +48714,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>342</v>
       </c>
+      <c r="B294" t="s">
+        <v>88</v>
+      </c>
       <c r="C294">
         <v>5</v>
       </c>
@@ -46096,6 +48730,12 @@
       <c r="E294">
         <v>237760189</v>
       </c>
+      <c r="F294" t="s">
+        <v>88</v>
+      </c>
+      <c r="G294" t="s">
+        <v>88</v>
+      </c>
       <c r="H294" t="s">
         <v>87</v>
       </c>
@@ -46277,10 +48917,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>343</v>
       </c>
+      <c r="B295" t="s">
+        <v>88</v>
+      </c>
       <c r="C295">
         <v>5</v>
       </c>
@@ -46290,6 +48933,12 @@
       <c r="E295">
         <v>1910206278</v>
       </c>
+      <c r="F295" t="s">
+        <v>88</v>
+      </c>
+      <c r="G295" t="s">
+        <v>88</v>
+      </c>
       <c r="H295" t="s">
         <v>87</v>
       </c>
@@ -46483,10 +49132,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>344</v>
       </c>
+      <c r="B296" t="s">
+        <v>88</v>
+      </c>
       <c r="C296">
         <v>5</v>
       </c>
@@ -46496,6 +49148,12 @@
       <c r="E296">
         <v>1760758485</v>
       </c>
+      <c r="F296" t="s">
+        <v>88</v>
+      </c>
+      <c r="G296" t="s">
+        <v>88</v>
+      </c>
       <c r="H296" t="s">
         <v>87</v>
       </c>
@@ -46680,10 +49338,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>345</v>
       </c>
+      <c r="B297" t="s">
+        <v>88</v>
+      </c>
       <c r="C297">
         <v>5</v>
       </c>
@@ -46693,6 +49354,12 @@
       <c r="E297">
         <v>1955150516</v>
       </c>
+      <c r="F297" t="s">
+        <v>88</v>
+      </c>
+      <c r="G297" t="s">
+        <v>88</v>
+      </c>
       <c r="H297" t="s">
         <v>87</v>
       </c>
@@ -46880,10 +49547,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>346</v>
       </c>
+      <c r="B298" t="s">
+        <v>88</v>
+      </c>
       <c r="C298">
         <v>5</v>
       </c>
@@ -46893,6 +49563,12 @@
       <c r="E298">
         <v>407823465</v>
       </c>
+      <c r="F298" t="s">
+        <v>88</v>
+      </c>
+      <c r="G298" t="s">
+        <v>88</v>
+      </c>
       <c r="H298" t="s">
         <v>87</v>
       </c>
@@ -47071,10 +49747,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>347</v>
       </c>
+      <c r="B299" t="s">
+        <v>88</v>
+      </c>
       <c r="C299">
         <v>5</v>
       </c>
@@ -47084,6 +49763,12 @@
       <c r="E299">
         <v>1938413808</v>
       </c>
+      <c r="F299" t="s">
+        <v>88</v>
+      </c>
+      <c r="G299" t="s">
+        <v>88</v>
+      </c>
       <c r="H299" t="s">
         <v>87</v>
       </c>
@@ -47271,10 +49956,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>348</v>
       </c>
+      <c r="B300" t="s">
+        <v>88</v>
+      </c>
       <c r="C300">
         <v>5</v>
       </c>
@@ -47284,6 +49972,12 @@
       <c r="E300">
         <v>2054594756</v>
       </c>
+      <c r="F300" t="s">
+        <v>88</v>
+      </c>
+      <c r="G300" t="s">
+        <v>88</v>
+      </c>
       <c r="H300" t="s">
         <v>87</v>
       </c>
@@ -47471,10 +50165,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>349</v>
       </c>
+      <c r="B301" t="s">
+        <v>88</v>
+      </c>
       <c r="C301">
         <v>1</v>
       </c>
@@ -47484,14 +50181,23 @@
       <c r="E301">
         <v>176411755</v>
       </c>
+      <c r="F301" t="s">
+        <v>88</v>
+      </c>
+      <c r="G301" t="s">
+        <v>88</v>
+      </c>
       <c r="H301" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="302" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>350</v>
       </c>
+      <c r="B302" t="s">
+        <v>88</v>
+      </c>
       <c r="C302">
         <v>5</v>
       </c>
@@ -47501,6 +50207,12 @@
       <c r="E302">
         <v>1498952794</v>
       </c>
+      <c r="F302" t="s">
+        <v>88</v>
+      </c>
+      <c r="G302" t="s">
+        <v>88</v>
+      </c>
       <c r="H302" t="s">
         <v>87</v>
       </c>
@@ -47691,10 +50403,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>351</v>
       </c>
+      <c r="B303" t="s">
+        <v>88</v>
+      </c>
       <c r="C303">
         <v>5</v>
       </c>
@@ -47704,6 +50419,12 @@
       <c r="E303">
         <v>1630399095</v>
       </c>
+      <c r="F303" t="s">
+        <v>88</v>
+      </c>
+      <c r="G303" t="s">
+        <v>88</v>
+      </c>
       <c r="H303" t="s">
         <v>87</v>
       </c>
@@ -47888,10 +50609,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>352</v>
       </c>
+      <c r="B304" t="s">
+        <v>88</v>
+      </c>
       <c r="C304">
         <v>4</v>
       </c>
@@ -47901,6 +50625,12 @@
       <c r="E304">
         <v>1993050529</v>
       </c>
+      <c r="F304" t="s">
+        <v>88</v>
+      </c>
+      <c r="G304" t="s">
+        <v>88</v>
+      </c>
       <c r="H304" t="s">
         <v>87</v>
       </c>
@@ -48037,10 +50767,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>353</v>
       </c>
+      <c r="B305" t="s">
+        <v>88</v>
+      </c>
       <c r="C305">
         <v>5</v>
       </c>
@@ -48050,6 +50783,12 @@
       <c r="E305">
         <v>2102568852</v>
       </c>
+      <c r="F305" t="s">
+        <v>88</v>
+      </c>
+      <c r="G305" t="s">
+        <v>88</v>
+      </c>
       <c r="H305" t="s">
         <v>87</v>
       </c>
@@ -48237,10 +50976,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>354</v>
       </c>
+      <c r="B306" t="s">
+        <v>88</v>
+      </c>
       <c r="C306">
         <v>5</v>
       </c>
@@ -48250,6 +50992,12 @@
       <c r="E306">
         <v>1775877412</v>
       </c>
+      <c r="F306" t="s">
+        <v>88</v>
+      </c>
+      <c r="G306" t="s">
+        <v>88</v>
+      </c>
       <c r="H306" t="s">
         <v>87</v>
       </c>
@@ -48434,21 +51182,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>355</v>
       </c>
+      <c r="B307" t="s">
+        <v>88</v>
+      </c>
       <c r="D307" t="s">
         <v>86</v>
       </c>
       <c r="E307">
         <v>1684819983</v>
       </c>
+      <c r="F307" t="s">
+        <v>88</v>
+      </c>
+      <c r="G307" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="308" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>356</v>
       </c>
+      <c r="B308" t="s">
+        <v>88</v>
+      </c>
       <c r="C308">
         <v>5</v>
       </c>
@@ -48458,6 +51218,12 @@
       <c r="E308">
         <v>701067178</v>
       </c>
+      <c r="F308" t="s">
+        <v>88</v>
+      </c>
+      <c r="G308" t="s">
+        <v>88</v>
+      </c>
       <c r="H308" t="s">
         <v>87</v>
       </c>
@@ -48642,10 +51408,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>357</v>
       </c>
+      <c r="B309" t="s">
+        <v>88</v>
+      </c>
       <c r="C309">
         <v>5</v>
       </c>
@@ -48655,6 +51424,12 @@
       <c r="E309">
         <v>1885057502</v>
       </c>
+      <c r="F309" t="s">
+        <v>88</v>
+      </c>
+      <c r="G309" t="s">
+        <v>88</v>
+      </c>
       <c r="H309" t="s">
         <v>87</v>
       </c>
@@ -48836,10 +51611,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>358</v>
       </c>
+      <c r="B310" t="s">
+        <v>88</v>
+      </c>
       <c r="C310">
         <v>5</v>
       </c>
@@ -48849,6 +51627,12 @@
       <c r="E310">
         <v>1797579622</v>
       </c>
+      <c r="F310" t="s">
+        <v>88</v>
+      </c>
+      <c r="G310" t="s">
+        <v>88</v>
+      </c>
       <c r="H310" t="s">
         <v>87</v>
       </c>
@@ -49036,10 +51820,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>359</v>
       </c>
+      <c r="B311" t="s">
+        <v>88</v>
+      </c>
       <c r="C311">
         <v>5</v>
       </c>
@@ -49049,6 +51836,12 @@
       <c r="E311">
         <v>1015580504</v>
       </c>
+      <c r="F311" t="s">
+        <v>88</v>
+      </c>
+      <c r="G311" t="s">
+        <v>88</v>
+      </c>
       <c r="H311" t="s">
         <v>87</v>
       </c>
@@ -49173,10 +51966,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>360</v>
       </c>
+      <c r="B312" t="s">
+        <v>88</v>
+      </c>
       <c r="C312">
         <v>5</v>
       </c>
@@ -49186,6 +51982,12 @@
       <c r="E312">
         <v>1397946891</v>
       </c>
+      <c r="F312" t="s">
+        <v>88</v>
+      </c>
+      <c r="G312" t="s">
+        <v>88</v>
+      </c>
       <c r="H312" t="s">
         <v>87</v>
       </c>
@@ -49361,10 +52163,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>361</v>
       </c>
+      <c r="B313" t="s">
+        <v>88</v>
+      </c>
       <c r="C313">
         <v>5</v>
       </c>
@@ -49374,6 +52179,12 @@
       <c r="E313">
         <v>914350851</v>
       </c>
+      <c r="F313" t="s">
+        <v>88</v>
+      </c>
+      <c r="G313" t="s">
+        <v>88</v>
+      </c>
       <c r="H313" t="s">
         <v>87</v>
       </c>
@@ -49558,10 +52369,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>362</v>
       </c>
+      <c r="B314" t="s">
+        <v>88</v>
+      </c>
       <c r="C314">
         <v>5</v>
       </c>
@@ -49571,6 +52385,12 @@
       <c r="E314">
         <v>1060743149</v>
       </c>
+      <c r="F314" t="s">
+        <v>88</v>
+      </c>
+      <c r="G314" t="s">
+        <v>88</v>
+      </c>
       <c r="H314" t="s">
         <v>87</v>
       </c>
@@ -49743,10 +52563,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>363</v>
       </c>
+      <c r="B315" t="s">
+        <v>88</v>
+      </c>
       <c r="C315">
         <v>1</v>
       </c>
@@ -49756,14 +52579,23 @@
       <c r="E315">
         <v>1784354585</v>
       </c>
+      <c r="F315" t="s">
+        <v>88</v>
+      </c>
+      <c r="G315" t="s">
+        <v>88</v>
+      </c>
       <c r="H315" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="316" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>364</v>
       </c>
+      <c r="B316" t="s">
+        <v>88</v>
+      </c>
       <c r="C316">
         <v>5</v>
       </c>
@@ -49773,6 +52605,12 @@
       <c r="E316">
         <v>952906648</v>
       </c>
+      <c r="F316" t="s">
+        <v>88</v>
+      </c>
+      <c r="G316" t="s">
+        <v>88</v>
+      </c>
       <c r="H316" t="s">
         <v>87</v>
       </c>
@@ -49957,10 +52795,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>365</v>
       </c>
+      <c r="B317" t="s">
+        <v>88</v>
+      </c>
       <c r="C317">
         <v>5</v>
       </c>
@@ -49970,6 +52811,12 @@
       <c r="E317">
         <v>355191274</v>
       </c>
+      <c r="F317" t="s">
+        <v>88</v>
+      </c>
+      <c r="G317" t="s">
+        <v>88</v>
+      </c>
       <c r="H317" t="s">
         <v>87</v>
       </c>
@@ -50157,10 +53004,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>366</v>
       </c>
+      <c r="B318" t="s">
+        <v>88</v>
+      </c>
       <c r="C318">
         <v>5</v>
       </c>
@@ -50170,6 +53020,12 @@
       <c r="E318">
         <v>2122807669</v>
       </c>
+      <c r="F318" t="s">
+        <v>88</v>
+      </c>
+      <c r="G318" t="s">
+        <v>88</v>
+      </c>
       <c r="H318" t="s">
         <v>87</v>
       </c>
@@ -50360,10 +53216,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>367</v>
       </c>
+      <c r="B319" t="s">
+        <v>88</v>
+      </c>
       <c r="C319">
         <v>1</v>
       </c>
@@ -50373,14 +53232,23 @@
       <c r="E319">
         <v>683404364</v>
       </c>
+      <c r="F319" t="s">
+        <v>88</v>
+      </c>
+      <c r="G319" t="s">
+        <v>88</v>
+      </c>
       <c r="H319" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="320" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>368</v>
       </c>
+      <c r="B320" t="s">
+        <v>88</v>
+      </c>
       <c r="C320">
         <v>5</v>
       </c>
@@ -50390,6 +53258,12 @@
       <c r="E320">
         <v>850463297</v>
       </c>
+      <c r="F320" t="s">
+        <v>88</v>
+      </c>
+      <c r="G320" t="s">
+        <v>88</v>
+      </c>
       <c r="H320" t="s">
         <v>87</v>
       </c>
@@ -50580,10 +53454,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>369</v>
       </c>
+      <c r="B321" t="s">
+        <v>88</v>
+      </c>
       <c r="C321">
         <v>5</v>
       </c>
@@ -50593,6 +53470,12 @@
       <c r="E321">
         <v>1193346436</v>
       </c>
+      <c r="F321" t="s">
+        <v>88</v>
+      </c>
+      <c r="G321" t="s">
+        <v>88</v>
+      </c>
       <c r="H321" t="s">
         <v>87</v>
       </c>
@@ -50777,10 +53660,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>370</v>
       </c>
+      <c r="B322" t="s">
+        <v>88</v>
+      </c>
       <c r="C322">
         <v>5</v>
       </c>
@@ -50790,6 +53676,12 @@
       <c r="E322">
         <v>529827158</v>
       </c>
+      <c r="F322" t="s">
+        <v>88</v>
+      </c>
+      <c r="G322" t="s">
+        <v>88</v>
+      </c>
       <c r="H322" t="s">
         <v>87</v>
       </c>
@@ -50974,10 +53866,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>371</v>
       </c>
+      <c r="B323" t="s">
+        <v>88</v>
+      </c>
       <c r="C323">
         <v>1</v>
       </c>
@@ -50987,14 +53882,23 @@
       <c r="E323">
         <v>1684433907</v>
       </c>
+      <c r="F323" t="s">
+        <v>88</v>
+      </c>
+      <c r="G323" t="s">
+        <v>88</v>
+      </c>
       <c r="H323" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="324" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>372</v>
       </c>
+      <c r="B324" t="s">
+        <v>88</v>
+      </c>
       <c r="C324">
         <v>1</v>
       </c>
@@ -51004,14 +53908,23 @@
       <c r="E324">
         <v>1082291608</v>
       </c>
+      <c r="F324" t="s">
+        <v>88</v>
+      </c>
+      <c r="G324" t="s">
+        <v>88</v>
+      </c>
       <c r="H324" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="325" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>373</v>
       </c>
+      <c r="B325" t="s">
+        <v>88</v>
+      </c>
       <c r="C325">
         <v>5</v>
       </c>
@@ -51021,6 +53934,12 @@
       <c r="E325">
         <v>1003050177</v>
       </c>
+      <c r="F325" t="s">
+        <v>88</v>
+      </c>
+      <c r="G325" t="s">
+        <v>88</v>
+      </c>
       <c r="H325" t="s">
         <v>87</v>
       </c>
@@ -51202,10 +54121,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>374</v>
       </c>
+      <c r="B326" t="s">
+        <v>88</v>
+      </c>
       <c r="C326">
         <v>5</v>
       </c>
@@ -51215,6 +54137,12 @@
       <c r="E326">
         <v>938893296</v>
       </c>
+      <c r="F326" t="s">
+        <v>88</v>
+      </c>
+      <c r="G326" t="s">
+        <v>88</v>
+      </c>
       <c r="H326" t="s">
         <v>87</v>
       </c>
@@ -51402,10 +54330,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>375</v>
       </c>
+      <c r="B327" t="s">
+        <v>88</v>
+      </c>
       <c r="C327">
         <v>1</v>
       </c>
@@ -51415,14 +54346,23 @@
       <c r="E327">
         <v>1791702825</v>
       </c>
+      <c r="F327" t="s">
+        <v>88</v>
+      </c>
+      <c r="G327" t="s">
+        <v>88</v>
+      </c>
       <c r="H327" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="328" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>376</v>
       </c>
+      <c r="B328" t="s">
+        <v>88</v>
+      </c>
       <c r="C328">
         <v>1</v>
       </c>
@@ -51432,14 +54372,23 @@
       <c r="E328">
         <v>264035273</v>
       </c>
+      <c r="F328" t="s">
+        <v>88</v>
+      </c>
+      <c r="G328" t="s">
+        <v>88</v>
+      </c>
       <c r="H328" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="329" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>377</v>
       </c>
+      <c r="B329" t="s">
+        <v>88</v>
+      </c>
       <c r="C329">
         <v>5</v>
       </c>
@@ -51449,6 +54398,12 @@
       <c r="E329">
         <v>461916357</v>
       </c>
+      <c r="F329" t="s">
+        <v>88</v>
+      </c>
+      <c r="G329" t="s">
+        <v>88</v>
+      </c>
       <c r="H329" t="s">
         <v>87</v>
       </c>
@@ -51633,10 +54588,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>378</v>
       </c>
+      <c r="B330" t="s">
+        <v>88</v>
+      </c>
       <c r="C330">
         <v>5</v>
       </c>
@@ -51646,6 +54604,12 @@
       <c r="E330">
         <v>358255506</v>
       </c>
+      <c r="F330" t="s">
+        <v>88</v>
+      </c>
+      <c r="G330" t="s">
+        <v>88</v>
+      </c>
       <c r="H330" t="s">
         <v>87</v>
       </c>
@@ -51827,10 +54791,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>379</v>
       </c>
+      <c r="B331" t="s">
+        <v>88</v>
+      </c>
       <c r="C331">
         <v>5</v>
       </c>
@@ -51840,6 +54807,12 @@
       <c r="E331">
         <v>1719938901</v>
       </c>
+      <c r="F331" t="s">
+        <v>88</v>
+      </c>
+      <c r="G331" t="s">
+        <v>88</v>
+      </c>
       <c r="H331" t="s">
         <v>87</v>
       </c>
@@ -52024,10 +54997,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>380</v>
       </c>
+      <c r="B332" t="s">
+        <v>88</v>
+      </c>
       <c r="C332">
         <v>5</v>
       </c>
@@ -52037,6 +55013,12 @@
       <c r="E332">
         <v>376333712</v>
       </c>
+      <c r="F332" t="s">
+        <v>88</v>
+      </c>
+      <c r="G332" t="s">
+        <v>88</v>
+      </c>
       <c r="H332" t="s">
         <v>87</v>
       </c>
@@ -52221,10 +55203,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>381</v>
       </c>
+      <c r="B333" t="s">
+        <v>88</v>
+      </c>
       <c r="C333">
         <v>5</v>
       </c>
@@ -52234,6 +55219,12 @@
       <c r="E333">
         <v>229017464</v>
       </c>
+      <c r="F333" t="s">
+        <v>88</v>
+      </c>
+      <c r="G333" t="s">
+        <v>88</v>
+      </c>
       <c r="H333" t="s">
         <v>87</v>
       </c>
@@ -52418,10 +55409,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>382</v>
       </c>
+      <c r="B334" t="s">
+        <v>88</v>
+      </c>
       <c r="C334">
         <v>5</v>
       </c>
@@ -52431,6 +55425,12 @@
       <c r="E334">
         <v>872341522</v>
       </c>
+      <c r="F334" t="s">
+        <v>88</v>
+      </c>
+      <c r="G334" t="s">
+        <v>88</v>
+      </c>
       <c r="H334" t="s">
         <v>87</v>
       </c>
@@ -52615,10 +55615,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>383</v>
       </c>
+      <c r="B335" t="s">
+        <v>88</v>
+      </c>
       <c r="C335">
         <v>2</v>
       </c>
@@ -52628,6 +55631,12 @@
       <c r="E335">
         <v>1407831817</v>
       </c>
+      <c r="F335" t="s">
+        <v>88</v>
+      </c>
+      <c r="G335" t="s">
+        <v>88</v>
+      </c>
       <c r="H335" t="s">
         <v>87</v>
       </c>
@@ -52692,10 +55701,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>384</v>
       </c>
+      <c r="B336" t="s">
+        <v>88</v>
+      </c>
       <c r="C336">
         <v>5</v>
       </c>
@@ -52705,6 +55717,12 @@
       <c r="E336">
         <v>3200568</v>
       </c>
+      <c r="F336" t="s">
+        <v>88</v>
+      </c>
+      <c r="G336" t="s">
+        <v>88</v>
+      </c>
       <c r="H336" t="s">
         <v>87</v>
       </c>
@@ -52886,10 +55904,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>385</v>
       </c>
+      <c r="B337" t="s">
+        <v>88</v>
+      </c>
       <c r="C337">
         <v>5</v>
       </c>
@@ -52899,6 +55920,12 @@
       <c r="E337">
         <v>1757947298</v>
       </c>
+      <c r="F337" t="s">
+        <v>88</v>
+      </c>
+      <c r="G337" t="s">
+        <v>88</v>
+      </c>
       <c r="H337" t="s">
         <v>87</v>
       </c>
@@ -53086,10 +56113,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>386</v>
       </c>
+      <c r="B338" t="s">
+        <v>88</v>
+      </c>
       <c r="C338">
         <v>5</v>
       </c>
@@ -53099,6 +56129,12 @@
       <c r="E338">
         <v>2069128368</v>
       </c>
+      <c r="F338" t="s">
+        <v>88</v>
+      </c>
+      <c r="G338" t="s">
+        <v>88</v>
+      </c>
       <c r="H338" t="s">
         <v>87</v>
       </c>
@@ -53280,10 +56316,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>387</v>
       </c>
+      <c r="B339" t="s">
+        <v>88</v>
+      </c>
       <c r="C339">
         <v>5</v>
       </c>
@@ -53293,6 +56332,12 @@
       <c r="E339">
         <v>1088275112</v>
       </c>
+      <c r="F339" t="s">
+        <v>88</v>
+      </c>
+      <c r="G339" t="s">
+        <v>88</v>
+      </c>
       <c r="H339" t="s">
         <v>87</v>
       </c>
@@ -53483,10 +56528,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>388</v>
       </c>
+      <c r="B340" t="s">
+        <v>88</v>
+      </c>
       <c r="C340">
         <v>1</v>
       </c>
@@ -53496,14 +56544,23 @@
       <c r="E340">
         <v>1145558179</v>
       </c>
+      <c r="F340" t="s">
+        <v>88</v>
+      </c>
+      <c r="G340" t="s">
+        <v>88</v>
+      </c>
       <c r="H340" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="341" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>389</v>
       </c>
+      <c r="B341" t="s">
+        <v>88</v>
+      </c>
       <c r="C341">
         <v>1</v>
       </c>
@@ -53513,14 +56570,23 @@
       <c r="E341">
         <v>1845015914</v>
       </c>
+      <c r="F341" t="s">
+        <v>88</v>
+      </c>
+      <c r="G341" t="s">
+        <v>88</v>
+      </c>
       <c r="H341" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="342" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>390</v>
       </c>
+      <c r="B342" t="s">
+        <v>88</v>
+      </c>
       <c r="C342">
         <v>5</v>
       </c>
@@ -53530,6 +56596,12 @@
       <c r="E342">
         <v>670821100</v>
       </c>
+      <c r="F342" t="s">
+        <v>88</v>
+      </c>
+      <c r="G342" t="s">
+        <v>88</v>
+      </c>
       <c r="H342" t="s">
         <v>87</v>
       </c>
@@ -53714,10 +56786,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>391</v>
       </c>
+      <c r="B343" t="s">
+        <v>88</v>
+      </c>
       <c r="C343">
         <v>5</v>
       </c>
@@ -53727,6 +56802,12 @@
       <c r="E343">
         <v>1402139810</v>
       </c>
+      <c r="F343" t="s">
+        <v>88</v>
+      </c>
+      <c r="G343" t="s">
+        <v>88</v>
+      </c>
       <c r="H343" t="s">
         <v>87</v>
       </c>
@@ -53911,10 +56992,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>392</v>
       </c>
+      <c r="B344" t="s">
+        <v>88</v>
+      </c>
       <c r="C344">
         <v>1</v>
       </c>
@@ -53924,14 +57008,23 @@
       <c r="E344">
         <v>26689055</v>
       </c>
+      <c r="F344" t="s">
+        <v>88</v>
+      </c>
+      <c r="G344" t="s">
+        <v>88</v>
+      </c>
       <c r="H344" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="345" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>393</v>
       </c>
+      <c r="B345" t="s">
+        <v>88</v>
+      </c>
       <c r="C345">
         <v>5</v>
       </c>
@@ -53941,6 +57034,12 @@
       <c r="E345">
         <v>1165567591</v>
       </c>
+      <c r="F345" t="s">
+        <v>88</v>
+      </c>
+      <c r="G345" t="s">
+        <v>88</v>
+      </c>
       <c r="H345" t="s">
         <v>87</v>
       </c>
@@ -54122,10 +57221,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>394</v>
       </c>
+      <c r="B346" t="s">
+        <v>88</v>
+      </c>
       <c r="C346">
         <v>5</v>
       </c>
@@ -54135,6 +57237,12 @@
       <c r="E346">
         <v>762330420</v>
       </c>
+      <c r="F346" t="s">
+        <v>88</v>
+      </c>
+      <c r="G346" t="s">
+        <v>88</v>
+      </c>
       <c r="H346" t="s">
         <v>87</v>
       </c>
@@ -54322,10 +57430,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>395</v>
       </c>
+      <c r="B347" t="s">
+        <v>88</v>
+      </c>
       <c r="C347">
         <v>5</v>
       </c>
@@ -54335,6 +57446,12 @@
       <c r="E347">
         <v>527880705</v>
       </c>
+      <c r="F347" t="s">
+        <v>88</v>
+      </c>
+      <c r="G347" t="s">
+        <v>88</v>
+      </c>
       <c r="H347" t="s">
         <v>87</v>
       </c>
@@ -54522,10 +57639,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>396</v>
       </c>
+      <c r="B348" t="s">
+        <v>88</v>
+      </c>
       <c r="C348">
         <v>1</v>
       </c>
@@ -54535,14 +57655,23 @@
       <c r="E348">
         <v>1971589136</v>
       </c>
+      <c r="F348" t="s">
+        <v>88</v>
+      </c>
+      <c r="G348" t="s">
+        <v>88</v>
+      </c>
       <c r="H348" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="349" spans="1:86" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>397</v>
       </c>
+      <c r="B349" t="s">
+        <v>88</v>
+      </c>
       <c r="C349">
         <v>5</v>
       </c>
@@ -54551,6 +57680,12 @@
       </c>
       <c r="E349">
         <v>778567471</v>
+      </c>
+      <c r="F349" t="s">
+        <v>88</v>
+      </c>
+      <c r="G349" t="s">
+        <v>88</v>
       </c>
       <c r="H349" t="s">
         <v>87</v>
